--- a/data/Transactions.xlsx
+++ b/data/Transactions.xlsx
@@ -1002,16 +1002,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1040,3858 +1036,3858 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.87"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="0" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="0" t="n">
         <v>918848168067</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="2" t="n">
+      <c r="D2" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="n">
         <v>45329</v>
       </c>
-      <c r="F2" s="1" t="n">
-        <v>457782</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="F2" s="0" t="n">
+        <v>457782</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="I2" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1" t="n">
+      <c r="M2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="0" t="n">
         <v>513.14</v>
       </c>
-      <c r="O2" s="1" t="n">
+      <c r="O2" s="0" t="n">
         <v>13.14</v>
       </c>
-      <c r="P2" s="1" t="n">
+      <c r="P2" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="Q2" s="1" t="n">
+      <c r="Q2" s="0" t="n">
         <v>24.5</v>
       </c>
-      <c r="R2" s="1" t="n">
+      <c r="R2" s="0" t="n">
         <v>475.5</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="T2" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="U2" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W2" s="1" t="s">
+      <c r="V2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="W2" s="0" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="0" t="n">
         <v>917594019275</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="2" t="n">
+      <c r="D3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1" t="n">
         <v>45329</v>
       </c>
-      <c r="F3" s="1" t="n">
-        <v>457782</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="F3" s="0" t="n">
+        <v>457782</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="I3" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1" t="n">
+      <c r="M3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="0" t="n">
         <v>513.14</v>
       </c>
-      <c r="O3" s="1" t="n">
+      <c r="O3" s="0" t="n">
         <v>13.14</v>
       </c>
-      <c r="P3" s="1" t="n">
+      <c r="P3" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="Q3" s="1" t="n">
+      <c r="Q3" s="0" t="n">
         <v>24.5</v>
       </c>
-      <c r="R3" s="1" t="n">
+      <c r="R3" s="0" t="n">
         <v>475.5</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="S3" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="U3" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W3" s="1" t="s">
+      <c r="V3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="W3" s="0" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="0" t="n">
         <v>919895331729</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="2" t="n">
+      <c r="D4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="n">
         <v>45329</v>
       </c>
-      <c r="F4" s="1" t="n">
-        <v>457782</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="F4" s="0" t="n">
+        <v>457782</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1" t="s">
+      <c r="I4" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="1" t="n">
+      <c r="M4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="0" t="n">
         <v>513.14</v>
       </c>
-      <c r="O4" s="1" t="n">
+      <c r="O4" s="0" t="n">
         <v>13.14</v>
       </c>
-      <c r="P4" s="1" t="n">
+      <c r="P4" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="Q4" s="1" t="n">
+      <c r="Q4" s="0" t="n">
         <v>24.5</v>
       </c>
-      <c r="R4" s="1" t="n">
+      <c r="R4" s="0" t="n">
         <v>475.5</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="S4" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="T4" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="U4" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W4" s="1" t="s">
+      <c r="V4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="W4" s="0" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="0" t="n">
         <v>919947532173</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="2" t="n">
+      <c r="D5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1" t="n">
         <v>45329</v>
       </c>
-      <c r="F5" s="1" t="n">
-        <v>457782</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="F5" s="0" t="n">
+        <v>457782</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="1" t="s">
+      <c r="I5" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="M5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1" t="n">
+      <c r="M5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="0" t="n">
         <v>513.14</v>
       </c>
-      <c r="O5" s="1" t="n">
+      <c r="O5" s="0" t="n">
         <v>13.14</v>
       </c>
-      <c r="P5" s="1" t="n">
+      <c r="P5" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="Q5" s="1" t="n">
+      <c r="Q5" s="0" t="n">
         <v>24.5</v>
       </c>
-      <c r="R5" s="1" t="n">
+      <c r="R5" s="0" t="n">
         <v>475.5</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="S5" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="T5" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="U5" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W5" s="1" t="s">
+      <c r="V5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="W5" s="0" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="0" t="n">
         <v>918289956114</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="2" t="n">
+      <c r="D6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1" t="n">
         <v>45329</v>
       </c>
-      <c r="F6" s="1" t="n">
-        <v>457782</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="F6" s="0" t="n">
+        <v>457782</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1" t="s">
+      <c r="I6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="1" t="n">
+      <c r="M6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="0" t="n">
         <v>513.14</v>
       </c>
-      <c r="O6" s="1" t="n">
+      <c r="O6" s="0" t="n">
         <v>13.14</v>
       </c>
-      <c r="P6" s="1" t="n">
+      <c r="P6" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="Q6" s="1" t="n">
+      <c r="Q6" s="0" t="n">
         <v>24.5</v>
       </c>
-      <c r="R6" s="1" t="n">
+      <c r="R6" s="0" t="n">
         <v>475.5</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="S6" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="T6" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="U6" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W6" s="1" t="s">
+      <c r="V6" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="W6" s="0" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="0" t="n">
         <v>919497408473</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="2" t="n">
+      <c r="D7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1" t="n">
         <v>45329</v>
       </c>
-      <c r="F7" s="1" t="n">
-        <v>457782</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="F7" s="0" t="n">
+        <v>457782</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="1" t="s">
+      <c r="I7" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="M7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="1" t="n">
+      <c r="M7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="0" t="n">
         <v>513.14</v>
       </c>
-      <c r="O7" s="1" t="n">
+      <c r="O7" s="0" t="n">
         <v>13.14</v>
       </c>
-      <c r="P7" s="1" t="n">
+      <c r="P7" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="Q7" s="1" t="n">
+      <c r="Q7" s="0" t="n">
         <v>24.5</v>
       </c>
-      <c r="R7" s="1" t="n">
+      <c r="R7" s="0" t="n">
         <v>475.5</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="S7" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="T7" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="U7" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W7" s="1" t="s">
+      <c r="V7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="W7" s="0" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="0" t="n">
         <v>919895827136</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="E8" s="1" t="n">
         <v>45329</v>
       </c>
-      <c r="F8" s="1" t="n">
-        <v>457782</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="1" t="s">
+      <c r="F8" s="0" t="n">
+        <v>457782</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="1" t="s">
+      <c r="I8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="M8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="1" t="n">
+      <c r="M8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="0" t="n">
         <v>513.14</v>
       </c>
-      <c r="O8" s="1" t="n">
+      <c r="O8" s="0" t="n">
         <v>13.14</v>
       </c>
-      <c r="P8" s="1" t="n">
+      <c r="P8" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="Q8" s="1" t="n">
+      <c r="Q8" s="0" t="n">
         <v>24.5</v>
       </c>
-      <c r="R8" s="1" t="n">
+      <c r="R8" s="0" t="n">
         <v>475.5</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="S8" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="T8" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="U8" s="1" t="s">
+      <c r="U8" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W8" s="1" t="s">
+      <c r="V8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="W8" s="0" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" s="0" t="n">
         <v>919188675510</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="2" t="n">
+      <c r="D9" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="1" t="n">
         <v>45329</v>
       </c>
-      <c r="F9" s="1" t="n">
-        <v>457782</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="1" t="s">
+      <c r="F9" s="0" t="n">
+        <v>457782</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="1" t="s">
+      <c r="I9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="M9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="1" t="n">
+      <c r="M9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="0" t="n">
         <v>513.14</v>
       </c>
-      <c r="O9" s="1" t="n">
+      <c r="O9" s="0" t="n">
         <v>13.14</v>
       </c>
-      <c r="P9" s="1" t="n">
+      <c r="P9" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="Q9" s="1" t="n">
+      <c r="Q9" s="0" t="n">
         <v>24.5</v>
       </c>
-      <c r="R9" s="1" t="n">
+      <c r="R9" s="0" t="n">
         <v>475.5</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="S9" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="T9" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="U9" s="1" t="s">
+      <c r="U9" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W9" s="1" t="s">
+      <c r="V9" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="W9" s="0" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="0" t="n">
         <v>919746147662</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="2" t="n">
+      <c r="D10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="1" t="n">
         <v>45329</v>
       </c>
-      <c r="F10" s="1" t="n">
-        <v>457782</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="1" t="s">
+      <c r="F10" s="0" t="n">
+        <v>457782</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="1" t="s">
+      <c r="I10" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="1" t="n">
+      <c r="M10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="0" t="n">
         <v>513.14</v>
       </c>
-      <c r="O10" s="1" t="n">
+      <c r="O10" s="0" t="n">
         <v>13.14</v>
       </c>
-      <c r="P10" s="1" t="n">
+      <c r="P10" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="Q10" s="1" t="n">
+      <c r="Q10" s="0" t="n">
         <v>24.5</v>
       </c>
-      <c r="R10" s="1" t="n">
+      <c r="R10" s="0" t="n">
         <v>475.5</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="S10" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="T10" s="1" t="s">
+      <c r="T10" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="U10" s="1" t="s">
+      <c r="U10" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W10" s="1" t="s">
+      <c r="V10" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="W10" s="0" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="0" t="n">
         <v>917994755833</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="2" t="n">
+      <c r="E11" s="1" t="n">
         <v>45329</v>
       </c>
-      <c r="F11" s="1" t="n">
-        <v>457782</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="1" t="s">
+      <c r="F11" s="0" t="n">
+        <v>457782</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="1" t="s">
+      <c r="I11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="M11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="1" t="n">
+      <c r="M11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="0" t="n">
         <v>513.14</v>
       </c>
-      <c r="O11" s="1" t="n">
+      <c r="O11" s="0" t="n">
         <v>13.14</v>
       </c>
-      <c r="P11" s="1" t="n">
+      <c r="P11" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="Q11" s="1" t="n">
+      <c r="Q11" s="0" t="n">
         <v>24.5</v>
       </c>
-      <c r="R11" s="1" t="n">
+      <c r="R11" s="0" t="n">
         <v>475.5</v>
       </c>
-      <c r="S11" s="1" t="s">
+      <c r="S11" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="T11" s="1" t="s">
+      <c r="T11" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="U11" s="1" t="s">
+      <c r="U11" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W11" s="1" t="s">
+      <c r="V11" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="W11" s="0" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" s="0" t="n">
         <v>919846056324</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="2" t="n">
+      <c r="D12" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="1" t="n">
         <v>45329</v>
       </c>
-      <c r="F12" s="1" t="n">
-        <v>457782</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="1" t="s">
+      <c r="F12" s="0" t="n">
+        <v>457782</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="1" t="s">
+      <c r="I12" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="M12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="1" t="n">
+      <c r="M12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="0" t="n">
         <v>513.14</v>
       </c>
-      <c r="O12" s="1" t="n">
+      <c r="O12" s="0" t="n">
         <v>13.14</v>
       </c>
-      <c r="P12" s="1" t="n">
+      <c r="P12" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="Q12" s="1" t="n">
+      <c r="Q12" s="0" t="n">
         <v>24.5</v>
       </c>
-      <c r="R12" s="1" t="n">
+      <c r="R12" s="0" t="n">
         <v>475.5</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="S12" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="T12" s="1" t="s">
+      <c r="T12" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="U12" s="1" t="s">
+      <c r="U12" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W12" s="1" t="s">
+      <c r="V12" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="W12" s="0" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" s="0" t="n">
         <v>919747709056</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="2" t="n">
+      <c r="D13" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="1" t="n">
         <v>45329</v>
       </c>
-      <c r="F13" s="1" t="n">
-        <v>457782</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="1" t="s">
+      <c r="F13" s="0" t="n">
+        <v>457782</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="1" t="s">
+      <c r="I13" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="M13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="1" t="n">
+      <c r="M13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="0" t="n">
         <v>513.14</v>
       </c>
-      <c r="O13" s="1" t="n">
+      <c r="O13" s="0" t="n">
         <v>13.14</v>
       </c>
-      <c r="P13" s="1" t="n">
+      <c r="P13" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="Q13" s="1" t="n">
+      <c r="Q13" s="0" t="n">
         <v>24.5</v>
       </c>
-      <c r="R13" s="1" t="n">
+      <c r="R13" s="0" t="n">
         <v>475.5</v>
       </c>
-      <c r="S13" s="1" t="s">
+      <c r="S13" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="T13" s="1" t="s">
+      <c r="T13" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="U13" s="1" t="s">
+      <c r="U13" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="V13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W13" s="1" t="s">
+      <c r="V13" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="W13" s="0" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B14" s="0" t="n">
         <v>918606817690</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="2" t="n">
+      <c r="D14" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="1" t="n">
         <v>45330</v>
       </c>
-      <c r="F14" s="1" t="n">
-        <v>457782</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="1" t="s">
+      <c r="F14" s="0" t="n">
+        <v>457782</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="1" t="s">
+      <c r="I14" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="M14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" s="1" t="n">
+      <c r="M14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="0" t="n">
         <v>513.14</v>
       </c>
-      <c r="O14" s="1" t="n">
+      <c r="O14" s="0" t="n">
         <v>13.14</v>
       </c>
-      <c r="P14" s="1" t="n">
+      <c r="P14" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="Q14" s="1" t="n">
+      <c r="Q14" s="0" t="n">
         <v>24.5</v>
       </c>
-      <c r="R14" s="1" t="n">
+      <c r="R14" s="0" t="n">
         <v>475.5</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="S14" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="T14" s="1" t="s">
+      <c r="T14" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="U14" s="1" t="s">
+      <c r="U14" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="V14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W14" s="1" t="s">
+      <c r="V14" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="W14" s="0" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B15" s="0" t="n">
         <v>918089237747</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="2" t="n">
+      <c r="D15" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="1" t="n">
         <v>45330</v>
       </c>
-      <c r="F15" s="1" t="n">
-        <v>457782</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="1" t="s">
+      <c r="F15" s="0" t="n">
+        <v>457782</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" s="1" t="s">
+      <c r="I15" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="M15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" s="1" t="n">
+      <c r="M15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="0" t="n">
         <v>513.14</v>
       </c>
-      <c r="O15" s="1" t="n">
+      <c r="O15" s="0" t="n">
         <v>13.14</v>
       </c>
-      <c r="P15" s="1" t="n">
+      <c r="P15" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="Q15" s="1" t="n">
+      <c r="Q15" s="0" t="n">
         <v>24.5</v>
       </c>
-      <c r="R15" s="1" t="n">
+      <c r="R15" s="0" t="n">
         <v>475.5</v>
       </c>
-      <c r="S15" s="1" t="s">
+      <c r="S15" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="T15" s="1" t="s">
+      <c r="T15" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="U15" s="1" t="s">
+      <c r="U15" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="V15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W15" s="1" t="s">
+      <c r="V15" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="W15" s="0" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B16" s="0" t="n">
         <v>919605349955</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="2" t="n">
+      <c r="D16" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="1" t="n">
         <v>45330</v>
       </c>
-      <c r="F16" s="1" t="n">
-        <v>457782</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" s="1" t="s">
+      <c r="F16" s="0" t="n">
+        <v>457782</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J16" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" s="1" t="s">
+      <c r="I16" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="M16" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="1" t="n">
+      <c r="M16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="0" t="n">
         <v>513.14</v>
       </c>
-      <c r="O16" s="1" t="n">
+      <c r="O16" s="0" t="n">
         <v>13.14</v>
       </c>
-      <c r="P16" s="1" t="n">
+      <c r="P16" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="Q16" s="1" t="n">
+      <c r="Q16" s="0" t="n">
         <v>24.5</v>
       </c>
-      <c r="R16" s="1" t="n">
+      <c r="R16" s="0" t="n">
         <v>475.5</v>
       </c>
-      <c r="S16" s="1" t="s">
+      <c r="S16" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="T16" s="1" t="s">
+      <c r="T16" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="U16" s="1" t="s">
+      <c r="U16" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="V16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W16" s="1" t="s">
+      <c r="V16" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="W16" s="0" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B17" s="0" t="n">
         <v>919544011006</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="E17" s="2" t="n">
+      <c r="E17" s="1" t="n">
         <v>45330</v>
       </c>
-      <c r="F17" s="1" t="n">
-        <v>457782</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="1" t="s">
+      <c r="F17" s="0" t="n">
+        <v>457782</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J17" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" s="1" t="s">
+      <c r="I17" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="M17" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="1" t="n">
+      <c r="M17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="0" t="n">
         <v>513.14</v>
       </c>
-      <c r="O17" s="1" t="n">
+      <c r="O17" s="0" t="n">
         <v>13.14</v>
       </c>
-      <c r="P17" s="1" t="n">
+      <c r="P17" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="Q17" s="1" t="n">
+      <c r="Q17" s="0" t="n">
         <v>24.5</v>
       </c>
-      <c r="R17" s="1" t="n">
+      <c r="R17" s="0" t="n">
         <v>475.5</v>
       </c>
-      <c r="S17" s="1" t="s">
+      <c r="S17" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="T17" s="1" t="s">
+      <c r="T17" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="U17" s="1" t="s">
+      <c r="U17" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="V17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W17" s="1" t="s">
+      <c r="V17" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="W17" s="0" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B18" s="0" t="n">
         <v>919446855722</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="2" t="n">
+      <c r="D18" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="1" t="n">
         <v>45330</v>
       </c>
-      <c r="F18" s="1" t="n">
-        <v>457782</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="1" t="s">
+      <c r="F18" s="0" t="n">
+        <v>457782</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J18" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" s="1" t="s">
+      <c r="I18" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="M18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" s="1" t="n">
+      <c r="M18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" s="0" t="n">
         <v>513.14</v>
       </c>
-      <c r="O18" s="1" t="n">
+      <c r="O18" s="0" t="n">
         <v>13.14</v>
       </c>
-      <c r="P18" s="1" t="n">
+      <c r="P18" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="Q18" s="1" t="n">
+      <c r="Q18" s="0" t="n">
         <v>24.5</v>
       </c>
-      <c r="R18" s="1" t="n">
+      <c r="R18" s="0" t="n">
         <v>475.5</v>
       </c>
-      <c r="S18" s="1" t="s">
+      <c r="S18" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="T18" s="1" t="s">
+      <c r="T18" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="U18" s="1" t="s">
+      <c r="U18" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W18" s="1" t="s">
+      <c r="V18" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="W18" s="0" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B19" s="0" t="n">
         <v>919746829341</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="2" t="n">
+      <c r="D19" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="1" t="n">
         <v>45330</v>
       </c>
-      <c r="F19" s="1" t="n">
-        <v>457782</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19" s="1" t="s">
+      <c r="F19" s="0" t="n">
+        <v>457782</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" s="1" t="s">
+      <c r="I19" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="M19" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" s="1" t="n">
+      <c r="M19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="0" t="n">
         <v>513.14</v>
       </c>
-      <c r="O19" s="1" t="n">
+      <c r="O19" s="0" t="n">
         <v>13.14</v>
       </c>
-      <c r="P19" s="1" t="n">
+      <c r="P19" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="Q19" s="1" t="n">
+      <c r="Q19" s="0" t="n">
         <v>24.5</v>
       </c>
-      <c r="R19" s="1" t="n">
+      <c r="R19" s="0" t="n">
         <v>475.5</v>
       </c>
-      <c r="S19" s="1" t="s">
+      <c r="S19" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="T19" s="1" t="s">
+      <c r="T19" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="U19" s="1" t="s">
+      <c r="U19" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="V19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W19" s="1" t="s">
+      <c r="V19" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="W19" s="0" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B20" s="0" t="n">
         <v>919544519014</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="2" t="n">
+      <c r="D20" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="1" t="n">
         <v>45330</v>
       </c>
-      <c r="F20" s="1" t="n">
-        <v>457782</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" s="1" t="s">
+      <c r="F20" s="0" t="n">
+        <v>457782</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J20" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" s="1" t="s">
+      <c r="I20" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="M20" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" s="1" t="n">
+      <c r="M20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" s="0" t="n">
         <v>513.14</v>
       </c>
-      <c r="O20" s="1" t="n">
+      <c r="O20" s="0" t="n">
         <v>13.14</v>
       </c>
-      <c r="P20" s="1" t="n">
+      <c r="P20" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="Q20" s="1" t="n">
+      <c r="Q20" s="0" t="n">
         <v>24.5</v>
       </c>
-      <c r="R20" s="1" t="n">
+      <c r="R20" s="0" t="n">
         <v>475.5</v>
       </c>
-      <c r="S20" s="1" t="s">
+      <c r="S20" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="T20" s="1" t="s">
+      <c r="T20" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="U20" s="1" t="s">
+      <c r="U20" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="V20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W20" s="1" t="s">
+      <c r="V20" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="W20" s="0" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B21" s="0" t="n">
         <v>919446488954</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="2" t="n">
+      <c r="D21" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="1" t="n">
         <v>45331</v>
       </c>
-      <c r="F21" s="1" t="n">
-        <v>457782</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="1" t="s">
+      <c r="F21" s="0" t="n">
+        <v>457782</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" s="1" t="s">
+      <c r="I21" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="M21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" s="1" t="n">
+      <c r="M21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" s="0" t="n">
         <v>513.14</v>
       </c>
-      <c r="O21" s="1" t="n">
+      <c r="O21" s="0" t="n">
         <v>13.14</v>
       </c>
-      <c r="P21" s="1" t="n">
+      <c r="P21" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="Q21" s="1" t="n">
+      <c r="Q21" s="0" t="n">
         <v>24.5</v>
       </c>
-      <c r="R21" s="1" t="n">
+      <c r="R21" s="0" t="n">
         <v>475.5</v>
       </c>
-      <c r="S21" s="1" t="s">
+      <c r="S21" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="T21" s="1" t="s">
+      <c r="T21" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="U21" s="1" t="s">
+      <c r="U21" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="V21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W21" s="1" t="s">
+      <c r="V21" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="W21" s="0" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B22" s="0" t="n">
         <v>918891888369</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="2" t="n">
+      <c r="D22" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="1" t="n">
         <v>45331</v>
       </c>
-      <c r="F22" s="1" t="n">
-        <v>457782</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H22" s="1" t="s">
+      <c r="F22" s="0" t="n">
+        <v>457782</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J22" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" s="1" t="s">
+      <c r="I22" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="M22" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" s="1" t="n">
+      <c r="M22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" s="0" t="n">
         <v>513.14</v>
       </c>
-      <c r="O22" s="1" t="n">
+      <c r="O22" s="0" t="n">
         <v>13.14</v>
       </c>
-      <c r="P22" s="1" t="n">
+      <c r="P22" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="Q22" s="1" t="n">
+      <c r="Q22" s="0" t="n">
         <v>24.5</v>
       </c>
-      <c r="R22" s="1" t="n">
+      <c r="R22" s="0" t="n">
         <v>475.5</v>
       </c>
-      <c r="S22" s="1" t="s">
+      <c r="S22" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="T22" s="1" t="s">
+      <c r="T22" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="U22" s="1" t="s">
+      <c r="U22" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="V22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W22" s="1" t="s">
+      <c r="V22" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="W22" s="0" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="B23" s="0" t="n">
         <v>919562186720</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="2" t="n">
+      <c r="D23" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="1" t="n">
         <v>45331</v>
       </c>
-      <c r="F23" s="1" t="n">
-        <v>457782</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H23" s="1" t="s">
+      <c r="F23" s="0" t="n">
+        <v>457782</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J23" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" s="1" t="s">
+      <c r="I23" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="M23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" s="1" t="n">
+      <c r="M23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" s="0" t="n">
         <v>513.14</v>
       </c>
-      <c r="O23" s="1" t="n">
+      <c r="O23" s="0" t="n">
         <v>13.14</v>
       </c>
-      <c r="P23" s="1" t="n">
+      <c r="P23" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="Q23" s="1" t="n">
+      <c r="Q23" s="0" t="n">
         <v>24.5</v>
       </c>
-      <c r="R23" s="1" t="n">
+      <c r="R23" s="0" t="n">
         <v>475.5</v>
       </c>
-      <c r="S23" s="1" t="s">
+      <c r="S23" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="T23" s="1" t="s">
+      <c r="T23" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="U23" s="1" t="s">
+      <c r="U23" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="V23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W23" s="1" t="s">
+      <c r="V23" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="W23" s="0" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="B24" s="1" t="n">
+      <c r="B24" s="0" t="n">
         <v>919447897359</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="2" t="n">
+      <c r="D24" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="1" t="n">
         <v>45331</v>
       </c>
-      <c r="F24" s="1" t="n">
-        <v>457782</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" s="1" t="s">
+      <c r="F24" s="0" t="n">
+        <v>457782</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J24" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K24" s="1" t="s">
+      <c r="I24" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="M24" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" s="1" t="n">
+      <c r="M24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" s="0" t="n">
         <v>513.14</v>
       </c>
-      <c r="O24" s="1" t="n">
+      <c r="O24" s="0" t="n">
         <v>13.14</v>
       </c>
-      <c r="P24" s="1" t="n">
+      <c r="P24" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="Q24" s="1" t="n">
+      <c r="Q24" s="0" t="n">
         <v>24.5</v>
       </c>
-      <c r="R24" s="1" t="n">
+      <c r="R24" s="0" t="n">
         <v>475.5</v>
       </c>
-      <c r="S24" s="1" t="s">
+      <c r="S24" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="T24" s="1" t="s">
+      <c r="T24" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="U24" s="1" t="s">
+      <c r="U24" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="V24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W24" s="1" t="s">
+      <c r="V24" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="W24" s="0" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="B25" s="1" t="n">
+      <c r="B25" s="0" t="n">
         <v>919495163201</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" s="2" t="n">
+      <c r="D25" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="1" t="n">
         <v>45332</v>
       </c>
-      <c r="F25" s="1" t="n">
-        <v>457782</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H25" s="1" t="s">
+      <c r="F25" s="0" t="n">
+        <v>457782</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J25" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" s="1" t="s">
+      <c r="I25" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="M25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" s="1" t="n">
+      <c r="M25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" s="0" t="n">
         <v>513.14</v>
       </c>
-      <c r="O25" s="1" t="n">
+      <c r="O25" s="0" t="n">
         <v>13.14</v>
       </c>
-      <c r="P25" s="1" t="n">
+      <c r="P25" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="Q25" s="1" t="n">
+      <c r="Q25" s="0" t="n">
         <v>24.5</v>
       </c>
-      <c r="R25" s="1" t="n">
+      <c r="R25" s="0" t="n">
         <v>475.5</v>
       </c>
-      <c r="S25" s="1" t="s">
+      <c r="S25" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="T25" s="1" t="s">
+      <c r="T25" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="U25" s="1" t="s">
+      <c r="U25" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="V25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W25" s="1" t="s">
+      <c r="V25" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="W25" s="0" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="B26" s="1" t="n">
+      <c r="B26" s="0" t="n">
         <v>919562631500</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" s="2" t="n">
+      <c r="D26" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="1" t="n">
         <v>45332</v>
       </c>
-      <c r="F26" s="1" t="n">
-        <v>457782</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H26" s="1" t="s">
+      <c r="F26" s="0" t="n">
+        <v>457782</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K26" s="1" t="s">
+      <c r="I26" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="M26" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" s="1" t="n">
+      <c r="M26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" s="0" t="n">
         <v>513.14</v>
       </c>
-      <c r="O26" s="1" t="n">
+      <c r="O26" s="0" t="n">
         <v>13.14</v>
       </c>
-      <c r="P26" s="1" t="n">
+      <c r="P26" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="Q26" s="1" t="n">
+      <c r="Q26" s="0" t="n">
         <v>24.5</v>
       </c>
-      <c r="R26" s="1" t="n">
+      <c r="R26" s="0" t="n">
         <v>475.5</v>
       </c>
-      <c r="S26" s="1" t="s">
+      <c r="S26" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="T26" s="1" t="s">
+      <c r="T26" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="U26" s="1" t="s">
+      <c r="U26" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="V26" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W26" s="1" t="s">
+      <c r="V26" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="W26" s="0" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="B27" s="1" t="n">
+      <c r="B27" s="0" t="n">
         <v>919497757930</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" s="2" t="n">
+      <c r="D27" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="1" t="n">
         <v>45332</v>
       </c>
-      <c r="F27" s="1" t="n">
-        <v>457782</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H27" s="1" t="s">
+      <c r="F27" s="0" t="n">
+        <v>457782</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K27" s="1" t="s">
+      <c r="I27" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="M27" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" s="1" t="n">
+      <c r="M27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" s="0" t="n">
         <v>513.14</v>
       </c>
-      <c r="O27" s="1" t="n">
+      <c r="O27" s="0" t="n">
         <v>13.14</v>
       </c>
-      <c r="P27" s="1" t="n">
+      <c r="P27" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="Q27" s="1" t="n">
+      <c r="Q27" s="0" t="n">
         <v>24.5</v>
       </c>
-      <c r="R27" s="1" t="n">
+      <c r="R27" s="0" t="n">
         <v>475.5</v>
       </c>
-      <c r="S27" s="1" t="s">
+      <c r="S27" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="T27" s="1" t="s">
+      <c r="T27" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="U27" s="1" t="s">
+      <c r="U27" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="V27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W27" s="1" t="s">
+      <c r="V27" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="W27" s="0" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="B28" s="1" t="n">
+      <c r="B28" s="0" t="n">
         <v>918891633120</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" s="2" t="n">
+      <c r="D28" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="1" t="n">
         <v>45332</v>
       </c>
-      <c r="F28" s="1" t="n">
-        <v>457782</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H28" s="1" t="s">
+      <c r="F28" s="0" t="n">
+        <v>457782</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J28" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K28" s="1" t="s">
+      <c r="I28" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="M28" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" s="1" t="n">
+      <c r="M28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" s="0" t="n">
         <v>513.14</v>
       </c>
-      <c r="O28" s="1" t="n">
+      <c r="O28" s="0" t="n">
         <v>13.14</v>
       </c>
-      <c r="P28" s="1" t="n">
+      <c r="P28" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="Q28" s="1" t="n">
+      <c r="Q28" s="0" t="n">
         <v>24.5</v>
       </c>
-      <c r="R28" s="1" t="n">
+      <c r="R28" s="0" t="n">
         <v>475.5</v>
       </c>
-      <c r="S28" s="1" t="s">
+      <c r="S28" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="T28" s="1" t="s">
+      <c r="T28" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="U28" s="1" t="s">
+      <c r="U28" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="V28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W28" s="1" t="s">
+      <c r="V28" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="W28" s="0" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="B29" s="1" t="n">
+      <c r="B29" s="0" t="n">
         <v>918547888418</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" s="2" t="n">
+      <c r="D29" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="1" t="n">
         <v>45332</v>
       </c>
-      <c r="F29" s="1" t="n">
-        <v>457782</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H29" s="1" t="s">
+      <c r="F29" s="0" t="n">
+        <v>457782</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J29" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K29" s="1" t="s">
+      <c r="I29" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="M29" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" s="1" t="n">
+      <c r="M29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" s="0" t="n">
         <v>513.14</v>
       </c>
-      <c r="O29" s="1" t="n">
+      <c r="O29" s="0" t="n">
         <v>13.14</v>
       </c>
-      <c r="P29" s="1" t="n">
+      <c r="P29" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="Q29" s="1" t="n">
+      <c r="Q29" s="0" t="n">
         <v>24.5</v>
       </c>
-      <c r="R29" s="1" t="n">
+      <c r="R29" s="0" t="n">
         <v>475.5</v>
       </c>
-      <c r="S29" s="1" t="s">
+      <c r="S29" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="T29" s="1" t="s">
+      <c r="T29" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="U29" s="1" t="s">
+      <c r="U29" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="V29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W29" s="1" t="s">
+      <c r="V29" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="W29" s="0" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="B30" s="1" t="n">
+      <c r="B30" s="0" t="n">
         <v>919446426143</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E30" s="2" t="n">
+      <c r="D30" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="1" t="n">
         <v>45332</v>
       </c>
-      <c r="F30" s="1" t="n">
-        <v>457782</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H30" s="1" t="s">
+      <c r="F30" s="0" t="n">
+        <v>457782</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J30" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K30" s="1" t="s">
+      <c r="I30" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="M30" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" s="1" t="n">
+      <c r="M30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" s="0" t="n">
         <v>513.14</v>
       </c>
-      <c r="O30" s="1" t="n">
+      <c r="O30" s="0" t="n">
         <v>13.14</v>
       </c>
-      <c r="P30" s="1" t="n">
+      <c r="P30" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="Q30" s="1" t="n">
+      <c r="Q30" s="0" t="n">
         <v>24.5</v>
       </c>
-      <c r="R30" s="1" t="n">
+      <c r="R30" s="0" t="n">
         <v>475.5</v>
       </c>
-      <c r="S30" s="1" t="s">
+      <c r="S30" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="T30" s="1" t="s">
+      <c r="T30" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="U30" s="1" t="s">
+      <c r="U30" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="V30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W30" s="1" t="s">
+      <c r="V30" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="W30" s="0" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="B31" s="1" t="n">
+      <c r="B31" s="0" t="n">
         <v>971505096530</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31" s="2" t="n">
+      <c r="D31" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="1" t="n">
         <v>45332</v>
       </c>
-      <c r="F31" s="1" t="n">
-        <v>457782</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H31" s="1" t="s">
+      <c r="F31" s="0" t="n">
+        <v>457782</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K31" s="1" t="s">
+      <c r="I31" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="M31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" s="1" t="n">
+      <c r="M31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" s="0" t="n">
         <v>513.14</v>
       </c>
-      <c r="O31" s="1" t="n">
+      <c r="O31" s="0" t="n">
         <v>13.14</v>
       </c>
-      <c r="P31" s="1" t="n">
+      <c r="P31" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="Q31" s="1" t="n">
+      <c r="Q31" s="0" t="n">
         <v>24.5</v>
       </c>
-      <c r="R31" s="1" t="n">
+      <c r="R31" s="0" t="n">
         <v>475.5</v>
       </c>
-      <c r="S31" s="1" t="s">
+      <c r="S31" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="T31" s="1" t="s">
+      <c r="T31" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="U31" s="1" t="s">
+      <c r="U31" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="V31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W31" s="1" t="s">
+      <c r="V31" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="W31" s="0" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="B32" s="1" t="n">
+      <c r="B32" s="0" t="n">
         <v>918289894151</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="E32" s="2" t="n">
+      <c r="E32" s="1" t="n">
         <v>45332</v>
       </c>
-      <c r="F32" s="1" t="n">
-        <v>457782</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H32" s="1" t="s">
+      <c r="F32" s="0" t="n">
+        <v>457782</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J32" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K32" s="1" t="s">
+      <c r="I32" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K32" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="M32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" s="1" t="n">
+      <c r="M32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" s="0" t="n">
         <v>513.14</v>
       </c>
-      <c r="O32" s="1" t="n">
+      <c r="O32" s="0" t="n">
         <v>13.14</v>
       </c>
-      <c r="P32" s="1" t="n">
+      <c r="P32" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="Q32" s="1" t="n">
+      <c r="Q32" s="0" t="n">
         <v>24.5</v>
       </c>
-      <c r="R32" s="1" t="n">
+      <c r="R32" s="0" t="n">
         <v>475.5</v>
       </c>
-      <c r="S32" s="1" t="s">
+      <c r="S32" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="T32" s="1" t="s">
+      <c r="T32" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="U32" s="1" t="s">
+      <c r="U32" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="V32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W32" s="1" t="s">
+      <c r="V32" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="W32" s="0" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="B33" s="1" t="n">
+      <c r="B33" s="0" t="n">
         <v>919048790207</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="E33" s="2" t="n">
+      <c r="E33" s="1" t="n">
         <v>45332</v>
       </c>
-      <c r="F33" s="1" t="n">
-        <v>457782</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H33" s="1" t="s">
+      <c r="F33" s="0" t="n">
+        <v>457782</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="I33" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J33" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K33" s="1" t="s">
+      <c r="I33" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="M33" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" s="1" t="n">
+      <c r="M33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" s="0" t="n">
         <v>513.14</v>
       </c>
-      <c r="O33" s="1" t="n">
+      <c r="O33" s="0" t="n">
         <v>13.14</v>
       </c>
-      <c r="P33" s="1" t="n">
+      <c r="P33" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="Q33" s="1" t="n">
+      <c r="Q33" s="0" t="n">
         <v>24.5</v>
       </c>
-      <c r="R33" s="1" t="n">
+      <c r="R33" s="0" t="n">
         <v>475.5</v>
       </c>
-      <c r="S33" s="1" t="s">
+      <c r="S33" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="T33" s="1" t="s">
+      <c r="T33" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="U33" s="1" t="s">
+      <c r="U33" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="V33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W33" s="1" t="s">
+      <c r="V33" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="W33" s="0" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="B34" s="1" t="n">
+      <c r="B34" s="0" t="n">
         <v>918848795005</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E34" s="2" t="n">
+      <c r="D34" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="1" t="n">
         <v>45332</v>
       </c>
-      <c r="F34" s="1" t="n">
-        <v>457782</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H34" s="1" t="s">
+      <c r="F34" s="0" t="n">
+        <v>457782</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="I34" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J34" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K34" s="1" t="s">
+      <c r="I34" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="M34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" s="1" t="n">
+      <c r="M34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" s="0" t="n">
         <v>513.14</v>
       </c>
-      <c r="O34" s="1" t="n">
+      <c r="O34" s="0" t="n">
         <v>13.14</v>
       </c>
-      <c r="P34" s="1" t="n">
+      <c r="P34" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="Q34" s="1" t="n">
+      <c r="Q34" s="0" t="n">
         <v>24.5</v>
       </c>
-      <c r="R34" s="1" t="n">
+      <c r="R34" s="0" t="n">
         <v>475.5</v>
       </c>
-      <c r="S34" s="1" t="s">
+      <c r="S34" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="T34" s="1" t="s">
+      <c r="T34" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="U34" s="1" t="s">
+      <c r="U34" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="V34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W34" s="1" t="s">
+      <c r="V34" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="W34" s="0" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="B35" s="1" t="n">
+      <c r="B35" s="0" t="n">
         <v>919961423156</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E35" s="2" t="n">
+      <c r="D35" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="1" t="n">
         <v>45332</v>
       </c>
-      <c r="F35" s="1" t="n">
-        <v>457782</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H35" s="1" t="s">
+      <c r="F35" s="0" t="n">
+        <v>457782</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="I35" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K35" s="1" t="s">
+      <c r="I35" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="M35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" s="1" t="n">
+      <c r="M35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" s="0" t="n">
         <v>513.14</v>
       </c>
-      <c r="O35" s="1" t="n">
+      <c r="O35" s="0" t="n">
         <v>13.14</v>
       </c>
-      <c r="P35" s="1" t="n">
+      <c r="P35" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="Q35" s="1" t="n">
+      <c r="Q35" s="0" t="n">
         <v>24.5</v>
       </c>
-      <c r="R35" s="1" t="n">
+      <c r="R35" s="0" t="n">
         <v>475.5</v>
       </c>
-      <c r="S35" s="1" t="s">
+      <c r="S35" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="T35" s="1" t="s">
+      <c r="T35" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="U35" s="1" t="s">
+      <c r="U35" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="V35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W35" s="1" t="s">
+      <c r="V35" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="W35" s="0" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="B36" s="1" t="n">
+      <c r="B36" s="0" t="n">
         <v>919539534201</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E36" s="2" t="n">
+      <c r="D36" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="1" t="n">
         <v>45332</v>
       </c>
-      <c r="F36" s="1" t="n">
-        <v>457782</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H36" s="1" t="s">
+      <c r="F36" s="0" t="n">
+        <v>457782</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H36" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="I36" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J36" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K36" s="1" t="s">
+      <c r="I36" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="M36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" s="1" t="n">
+      <c r="M36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" s="0" t="n">
         <v>513.14</v>
       </c>
-      <c r="O36" s="1" t="n">
+      <c r="O36" s="0" t="n">
         <v>13.14</v>
       </c>
-      <c r="P36" s="1" t="n">
+      <c r="P36" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="Q36" s="1" t="n">
+      <c r="Q36" s="0" t="n">
         <v>24.5</v>
       </c>
-      <c r="R36" s="1" t="n">
+      <c r="R36" s="0" t="n">
         <v>475.5</v>
       </c>
-      <c r="S36" s="1" t="s">
+      <c r="S36" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="T36" s="1" t="s">
+      <c r="T36" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="U36" s="1" t="s">
+      <c r="U36" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="V36" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W36" s="1" t="s">
+      <c r="V36" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="W36" s="0" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="B37" s="1" t="n">
+      <c r="B37" s="0" t="n">
         <v>918921484704</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37" s="2" t="n">
+      <c r="D37" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="1" t="n">
         <v>45332</v>
       </c>
-      <c r="F37" s="1" t="n">
-        <v>457782</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H37" s="1" t="s">
+      <c r="F37" s="0" t="n">
+        <v>457782</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="I37" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J37" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K37" s="1" t="s">
+      <c r="I37" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K37" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="M37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" s="1" t="n">
+      <c r="M37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" s="0" t="n">
         <v>513.14</v>
       </c>
-      <c r="O37" s="1" t="n">
+      <c r="O37" s="0" t="n">
         <v>13.14</v>
       </c>
-      <c r="P37" s="1" t="n">
+      <c r="P37" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="Q37" s="1" t="n">
+      <c r="Q37" s="0" t="n">
         <v>24.5</v>
       </c>
-      <c r="R37" s="1" t="n">
+      <c r="R37" s="0" t="n">
         <v>475.5</v>
       </c>
-      <c r="S37" s="1" t="s">
+      <c r="S37" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="T37" s="1" t="s">
+      <c r="T37" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="U37" s="1" t="s">
+      <c r="U37" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="V37" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W37" s="1" t="s">
+      <c r="V37" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="W37" s="0" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="B38" s="1" t="n">
+      <c r="B38" s="0" t="n">
         <v>919846785100</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E38" s="2" t="n">
+      <c r="D38" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="1" t="n">
         <v>45333</v>
       </c>
-      <c r="F38" s="1" t="n">
-        <v>457782</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H38" s="1" t="s">
+      <c r="F38" s="0" t="n">
+        <v>457782</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H38" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="I38" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J38" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K38" s="1" t="s">
+      <c r="I38" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K38" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="M38" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" s="1" t="n">
+      <c r="M38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" s="0" t="n">
         <v>513.14</v>
       </c>
-      <c r="O38" s="1" t="n">
+      <c r="O38" s="0" t="n">
         <v>13.14</v>
       </c>
-      <c r="P38" s="1" t="n">
+      <c r="P38" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="Q38" s="1" t="n">
+      <c r="Q38" s="0" t="n">
         <v>24.5</v>
       </c>
-      <c r="R38" s="1" t="n">
+      <c r="R38" s="0" t="n">
         <v>475.5</v>
       </c>
-      <c r="S38" s="1" t="s">
+      <c r="S38" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="T38" s="1" t="s">
+      <c r="T38" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="U38" s="1" t="s">
+      <c r="U38" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="V38" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W38" s="1" t="s">
+      <c r="V38" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="W38" s="0" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="B39" s="1" t="n">
+      <c r="B39" s="0" t="n">
         <v>919496433160</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E39" s="2" t="n">
+      <c r="D39" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="1" t="n">
         <v>45333</v>
       </c>
-      <c r="F39" s="1" t="n">
-        <v>457782</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H39" s="1" t="s">
+      <c r="F39" s="0" t="n">
+        <v>457782</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="I39" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J39" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K39" s="1" t="s">
+      <c r="I39" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="M39" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" s="1" t="n">
+      <c r="M39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" s="0" t="n">
         <v>513.14</v>
       </c>
-      <c r="O39" s="1" t="n">
+      <c r="O39" s="0" t="n">
         <v>13.14</v>
       </c>
-      <c r="P39" s="1" t="n">
+      <c r="P39" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="Q39" s="1" t="n">
+      <c r="Q39" s="0" t="n">
         <v>24.5</v>
       </c>
-      <c r="R39" s="1" t="n">
+      <c r="R39" s="0" t="n">
         <v>475.5</v>
       </c>
-      <c r="S39" s="1" t="s">
+      <c r="S39" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="T39" s="1" t="s">
+      <c r="T39" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="U39" s="1" t="s">
+      <c r="U39" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="V39" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W39" s="1" t="s">
+      <c r="V39" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="W39" s="0" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="B40" s="1" t="n">
+      <c r="B40" s="0" t="n">
         <v>919061013928</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E40" s="2" t="n">
+      <c r="D40" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" s="1" t="n">
         <v>45333</v>
       </c>
-      <c r="F40" s="1" t="n">
-        <v>457782</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H40" s="1" t="s">
+      <c r="F40" s="0" t="n">
+        <v>457782</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H40" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="I40" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J40" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K40" s="1" t="s">
+      <c r="I40" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K40" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="M40" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" s="1" t="n">
+      <c r="M40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" s="0" t="n">
         <v>513.14</v>
       </c>
-      <c r="O40" s="1" t="n">
+      <c r="O40" s="0" t="n">
         <v>13.14</v>
       </c>
-      <c r="P40" s="1" t="n">
+      <c r="P40" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="Q40" s="1" t="n">
+      <c r="Q40" s="0" t="n">
         <v>24.5</v>
       </c>
-      <c r="R40" s="1" t="n">
+      <c r="R40" s="0" t="n">
         <v>475.5</v>
       </c>
-      <c r="S40" s="1" t="s">
+      <c r="S40" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="T40" s="1" t="s">
+      <c r="T40" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="U40" s="1" t="s">
+      <c r="U40" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="V40" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W40" s="1" t="s">
+      <c r="V40" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="W40" s="0" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="B41" s="1" t="n">
+      <c r="B41" s="0" t="n">
         <v>919496273231</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E41" s="2" t="n">
+      <c r="D41" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" s="1" t="n">
         <v>45333</v>
       </c>
-      <c r="F41" s="1" t="n">
-        <v>457782</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H41" s="1" t="s">
+      <c r="F41" s="0" t="n">
+        <v>457782</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H41" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="I41" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J41" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K41" s="1" t="s">
+      <c r="I41" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="M41" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" s="1" t="n">
+      <c r="M41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" s="0" t="n">
         <v>513.14</v>
       </c>
-      <c r="O41" s="1" t="n">
+      <c r="O41" s="0" t="n">
         <v>13.14</v>
       </c>
-      <c r="P41" s="1" t="n">
+      <c r="P41" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="Q41" s="1" t="n">
+      <c r="Q41" s="0" t="n">
         <v>24.5</v>
       </c>
-      <c r="R41" s="1" t="n">
+      <c r="R41" s="0" t="n">
         <v>475.5</v>
       </c>
-      <c r="S41" s="1" t="s">
+      <c r="S41" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="T41" s="1" t="s">
+      <c r="T41" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="U41" s="1" t="s">
+      <c r="U41" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="V41" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W41" s="1" t="s">
+      <c r="V41" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="W41" s="0" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="B42" s="1" t="n">
+      <c r="B42" s="0" t="n">
         <v>919544371647</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E42" s="2" t="n">
+      <c r="D42" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" s="1" t="n">
         <v>45333</v>
       </c>
-      <c r="F42" s="1" t="n">
-        <v>457782</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H42" s="1" t="s">
+      <c r="F42" s="0" t="n">
+        <v>457782</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H42" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="I42" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J42" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K42" s="1" t="s">
+      <c r="I42" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="M42" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" s="1" t="n">
+      <c r="M42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" s="0" t="n">
         <v>513.14</v>
       </c>
-      <c r="O42" s="1" t="n">
+      <c r="O42" s="0" t="n">
         <v>13.14</v>
       </c>
-      <c r="P42" s="1" t="n">
+      <c r="P42" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="Q42" s="1" t="n">
+      <c r="Q42" s="0" t="n">
         <v>24.5</v>
       </c>
-      <c r="R42" s="1" t="n">
+      <c r="R42" s="0" t="n">
         <v>475.5</v>
       </c>
-      <c r="S42" s="1" t="s">
+      <c r="S42" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="T42" s="1" t="s">
+      <c r="T42" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="U42" s="1" t="s">
+      <c r="U42" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="V42" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W42" s="1" t="s">
+      <c r="V42" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="W42" s="0" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="B43" s="1" t="n">
+      <c r="B43" s="0" t="n">
         <v>919447102024</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="E43" s="2" t="n">
+      <c r="E43" s="1" t="n">
         <v>45333</v>
       </c>
-      <c r="F43" s="1" t="n">
-        <v>457782</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H43" s="1" t="s">
+      <c r="F43" s="0" t="n">
+        <v>457782</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H43" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="I43" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J43" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K43" s="1" t="s">
+      <c r="I43" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="M43" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" s="1" t="n">
+      <c r="M43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" s="0" t="n">
         <v>513.14</v>
       </c>
-      <c r="O43" s="1" t="n">
+      <c r="O43" s="0" t="n">
         <v>13.14</v>
       </c>
-      <c r="P43" s="1" t="n">
+      <c r="P43" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="Q43" s="1" t="n">
+      <c r="Q43" s="0" t="n">
         <v>24.5</v>
       </c>
-      <c r="R43" s="1" t="n">
+      <c r="R43" s="0" t="n">
         <v>475.5</v>
       </c>
-      <c r="S43" s="1" t="s">
+      <c r="S43" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="T43" s="1" t="s">
+      <c r="T43" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="U43" s="1" t="s">
+      <c r="U43" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="V43" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W43" s="1" t="s">
+      <c r="V43" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="W43" s="0" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="B44" s="1" t="n">
+      <c r="B44" s="0" t="n">
         <v>919544885606</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E44" s="2" t="n">
+      <c r="D44" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="1" t="n">
         <v>45334</v>
       </c>
-      <c r="F44" s="1" t="n">
-        <v>457782</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H44" s="1" t="s">
+      <c r="F44" s="0" t="n">
+        <v>457782</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H44" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="I44" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J44" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K44" s="1" t="s">
+      <c r="I44" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="M44" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" s="1" t="n">
+      <c r="M44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="O44" s="1" t="n">
+      <c r="O44" s="0" t="n">
         <v>15.36</v>
       </c>
-      <c r="P44" s="1" t="n">
+      <c r="P44" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="Q44" s="1" t="n">
+      <c r="Q44" s="0" t="n">
         <v>28.65</v>
       </c>
-      <c r="R44" s="1" t="n">
+      <c r="R44" s="0" t="n">
         <v>555.99</v>
       </c>
-      <c r="S44" s="1" t="s">
+      <c r="S44" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="T44" s="1" t="s">
+      <c r="T44" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="U44" s="1" t="s">
+      <c r="U44" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="V44" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W44" s="1" t="s">
+      <c r="V44" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="W44" s="0" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="B45" s="1" t="n">
+      <c r="B45" s="0" t="n">
         <v>918891187433</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E45" s="2" t="n">
+      <c r="D45" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" s="1" t="n">
         <v>45334</v>
       </c>
-      <c r="F45" s="1" t="n">
-        <v>457782</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H45" s="1" t="s">
+      <c r="F45" s="0" t="n">
+        <v>457782</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H45" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="I45" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J45" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K45" s="1" t="s">
+      <c r="I45" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K45" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="M45" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" s="1" t="n">
+      <c r="M45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="O45" s="1" t="n">
+      <c r="O45" s="0" t="n">
         <v>15.36</v>
       </c>
-      <c r="P45" s="1" t="n">
+      <c r="P45" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="Q45" s="1" t="n">
+      <c r="Q45" s="0" t="n">
         <v>28.65</v>
       </c>
-      <c r="R45" s="1" t="n">
+      <c r="R45" s="0" t="n">
         <v>555.99</v>
       </c>
-      <c r="S45" s="1" t="s">
+      <c r="S45" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="T45" s="1" t="s">
+      <c r="T45" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="U45" s="1" t="s">
+      <c r="U45" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="V45" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W45" s="1" t="s">
+      <c r="V45" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="W45" s="0" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="B46" s="1" t="n">
+      <c r="B46" s="0" t="n">
         <v>919074669296</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E46" s="2" t="n">
+      <c r="D46" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" s="1" t="n">
         <v>45334</v>
       </c>
-      <c r="F46" s="1" t="n">
-        <v>457782</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H46" s="1" t="s">
+      <c r="F46" s="0" t="n">
+        <v>457782</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H46" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="I46" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J46" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K46" s="1" t="s">
+      <c r="I46" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="M46" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" s="1" t="n">
+      <c r="M46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="O46" s="1" t="n">
+      <c r="O46" s="0" t="n">
         <v>15.36</v>
       </c>
-      <c r="P46" s="1" t="n">
+      <c r="P46" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="Q46" s="1" t="n">
+      <c r="Q46" s="0" t="n">
         <v>28.65</v>
       </c>
-      <c r="R46" s="1" t="n">
+      <c r="R46" s="0" t="n">
         <v>555.99</v>
       </c>
-      <c r="S46" s="1" t="s">
+      <c r="S46" s="0" t="s">
         <v>240</v>
       </c>
-      <c r="T46" s="1" t="s">
+      <c r="T46" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="U46" s="1" t="s">
+      <c r="U46" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="V46" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W46" s="1" t="s">
+      <c r="V46" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="W46" s="0" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="B47" s="1" t="n">
+      <c r="B47" s="0" t="n">
         <v>916282056275</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E47" s="2" t="n">
+      <c r="D47" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" s="1" t="n">
         <v>45334</v>
       </c>
-      <c r="F47" s="1" t="n">
-        <v>457782</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H47" s="1" t="s">
+      <c r="F47" s="0" t="n">
+        <v>457782</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H47" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="I47" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J47" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K47" s="1" t="s">
+      <c r="I47" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K47" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="M47" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" s="1" t="n">
+      <c r="M47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="O47" s="1" t="n">
+      <c r="O47" s="0" t="n">
         <v>15.36</v>
       </c>
-      <c r="P47" s="1" t="n">
+      <c r="P47" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="Q47" s="1" t="n">
+      <c r="Q47" s="0" t="n">
         <v>28.65</v>
       </c>
-      <c r="R47" s="1" t="n">
+      <c r="R47" s="0" t="n">
         <v>555.99</v>
       </c>
-      <c r="S47" s="1" t="s">
+      <c r="S47" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="T47" s="1" t="s">
+      <c r="T47" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="U47" s="1" t="s">
+      <c r="U47" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="V47" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W47" s="1" t="s">
+      <c r="V47" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="W47" s="0" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="0" t="s">
         <v>248</v>
       </c>
-      <c r="B48" s="1" t="n">
+      <c r="B48" s="0" t="n">
         <v>919349735401</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E48" s="2" t="n">
+      <c r="D48" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" s="1" t="n">
         <v>45334</v>
       </c>
-      <c r="F48" s="1" t="n">
-        <v>457782</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H48" s="1" t="s">
+      <c r="F48" s="0" t="n">
+        <v>457782</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H48" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="I48" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J48" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K48" s="1" t="s">
+      <c r="I48" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K48" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="M48" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" s="1" t="n">
+      <c r="M48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="O48" s="1" t="n">
+      <c r="O48" s="0" t="n">
         <v>15.36</v>
       </c>
-      <c r="P48" s="1" t="n">
+      <c r="P48" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="Q48" s="1" t="n">
+      <c r="Q48" s="0" t="n">
         <v>28.65</v>
       </c>
-      <c r="R48" s="1" t="n">
+      <c r="R48" s="0" t="n">
         <v>555.99</v>
       </c>
-      <c r="S48" s="1" t="s">
+      <c r="S48" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="T48" s="1" t="s">
+      <c r="T48" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="U48" s="1" t="s">
+      <c r="U48" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="V48" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W48" s="1" t="s">
+      <c r="V48" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="W48" s="0" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="0" t="s">
         <v>252</v>
       </c>
-      <c r="B49" s="1" t="n">
+      <c r="B49" s="0" t="n">
         <v>919995233351</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E49" s="2" t="n">
+      <c r="D49" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" s="1" t="n">
         <v>45335</v>
       </c>
-      <c r="F49" s="1" t="n">
-        <v>457782</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H49" s="1" t="s">
+      <c r="F49" s="0" t="n">
+        <v>457782</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H49" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="I49" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J49" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K49" s="1" t="s">
+      <c r="I49" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K49" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="M49" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" s="1" t="n">
+      <c r="M49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="O49" s="1" t="n">
+      <c r="O49" s="0" t="n">
         <v>15.36</v>
       </c>
-      <c r="P49" s="1" t="n">
+      <c r="P49" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="Q49" s="1" t="n">
+      <c r="Q49" s="0" t="n">
         <v>28.65</v>
       </c>
-      <c r="R49" s="1" t="n">
+      <c r="R49" s="0" t="n">
         <v>555.99</v>
       </c>
-      <c r="S49" s="1" t="s">
+      <c r="S49" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="T49" s="1" t="s">
+      <c r="T49" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="U49" s="1" t="s">
+      <c r="U49" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="V49" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W49" s="1" t="s">
+      <c r="V49" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="W49" s="0" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="0" t="s">
         <v>258</v>
       </c>
-      <c r="B50" s="1" t="n">
+      <c r="B50" s="0" t="n">
         <v>918281839301</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E50" s="2" t="n">
+      <c r="D50" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E50" s="1" t="n">
         <v>45335</v>
       </c>
-      <c r="F50" s="1" t="n">
-        <v>457782</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H50" s="1" t="s">
+      <c r="F50" s="0" t="n">
+        <v>457782</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H50" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="I50" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J50" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K50" s="1" t="s">
+      <c r="I50" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K50" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="M50" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" s="1" t="n">
+      <c r="M50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="O50" s="1" t="n">
+      <c r="O50" s="0" t="n">
         <v>15.36</v>
       </c>
-      <c r="P50" s="1" t="n">
+      <c r="P50" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="Q50" s="1" t="n">
+      <c r="Q50" s="0" t="n">
         <v>28.65</v>
       </c>
-      <c r="R50" s="1" t="n">
+      <c r="R50" s="0" t="n">
         <v>555.99</v>
       </c>
-      <c r="S50" s="1" t="s">
+      <c r="S50" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="T50" s="1" t="s">
+      <c r="T50" s="0" t="s">
         <v>260</v>
       </c>
-      <c r="U50" s="1" t="s">
+      <c r="U50" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="V50" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W50" s="1" t="s">
+      <c r="V50" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="W50" s="0" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="0" t="s">
         <v>262</v>
       </c>
-      <c r="B51" s="1" t="n">
+      <c r="B51" s="0" t="n">
         <v>918138001191</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E51" s="2" t="n">
+      <c r="D51" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" s="1" t="n">
         <v>45335</v>
       </c>
-      <c r="F51" s="1" t="n">
-        <v>457782</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H51" s="1" t="s">
+      <c r="F51" s="0" t="n">
+        <v>457782</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H51" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="I51" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J51" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K51" s="1" t="s">
+      <c r="I51" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K51" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="M51" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N51" s="1" t="n">
+      <c r="M51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="O51" s="1" t="n">
+      <c r="O51" s="0" t="n">
         <v>15.36</v>
       </c>
-      <c r="P51" s="1" t="n">
+      <c r="P51" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="Q51" s="1" t="n">
+      <c r="Q51" s="0" t="n">
         <v>28.65</v>
       </c>
-      <c r="R51" s="1" t="n">
+      <c r="R51" s="0" t="n">
         <v>555.99</v>
       </c>
-      <c r="S51" s="1" t="s">
+      <c r="S51" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="T51" s="1" t="s">
+      <c r="T51" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="U51" s="1" t="s">
+      <c r="U51" s="0" t="s">
         <v>265</v>
       </c>
-      <c r="V51" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W51" s="1" t="s">
+      <c r="V51" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="W51" s="0" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="0" t="s">
         <v>266</v>
       </c>
-      <c r="B52" s="1" t="n">
+      <c r="B52" s="0" t="n">
         <v>919946837190</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E52" s="2" t="n">
+      <c r="D52" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52" s="1" t="n">
         <v>45336</v>
       </c>
-      <c r="F52" s="1" t="n">
-        <v>457782</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H52" s="1" t="s">
+      <c r="F52" s="0" t="n">
+        <v>457782</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H52" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="I52" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J52" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K52" s="1" t="s">
+      <c r="I52" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K52" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="M52" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" s="1" t="n">
+      <c r="M52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="O52" s="1" t="n">
+      <c r="O52" s="0" t="n">
         <v>15.36</v>
       </c>
-      <c r="P52" s="1" t="n">
+      <c r="P52" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="Q52" s="1" t="n">
+      <c r="Q52" s="0" t="n">
         <v>28.65</v>
       </c>
-      <c r="R52" s="1" t="n">
+      <c r="R52" s="0" t="n">
         <v>555.99</v>
       </c>
-      <c r="S52" s="1" t="s">
+      <c r="S52" s="0" t="s">
         <v>268</v>
       </c>
-      <c r="T52" s="1" t="s">
+      <c r="T52" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="U52" s="1" t="s">
+      <c r="U52" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="V52" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W52" s="1" t="s">
+      <c r="V52" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="W52" s="0" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="B53" s="1" t="n">
+      <c r="B53" s="0" t="n">
         <v>917306220743</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E53" s="2" t="n">
+      <c r="D53" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" s="1" t="n">
         <v>45336</v>
       </c>
-      <c r="F53" s="1" t="n">
-        <v>457782</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H53" s="1" t="s">
+      <c r="F53" s="0" t="n">
+        <v>457782</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H53" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="I53" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J53" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K53" s="1" t="s">
+      <c r="I53" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K53" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="M53" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" s="1" t="n">
+      <c r="M53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="O53" s="1" t="n">
+      <c r="O53" s="0" t="n">
         <v>15.36</v>
       </c>
-      <c r="P53" s="1" t="n">
+      <c r="P53" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="Q53" s="1" t="n">
+      <c r="Q53" s="0" t="n">
         <v>28.65</v>
       </c>
-      <c r="R53" s="1" t="n">
+      <c r="R53" s="0" t="n">
         <v>555.99</v>
       </c>
-      <c r="S53" s="1" t="s">
+      <c r="S53" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="T53" s="1" t="s">
+      <c r="T53" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="U53" s="1" t="s">
+      <c r="U53" s="0" t="s">
         <v>275</v>
       </c>
-      <c r="V53" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W53" s="1" t="s">
+      <c r="V53" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="W53" s="0" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="0" t="s">
         <v>276</v>
       </c>
-      <c r="B54" s="1" t="n">
+      <c r="B54" s="0" t="n">
         <v>917306501241</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="0" t="s">
         <v>277</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E54" s="2" t="n">
+      <c r="D54" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E54" s="1" t="n">
         <v>45336</v>
       </c>
-      <c r="F54" s="1" t="n">
-        <v>457782</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H54" s="1" t="s">
+      <c r="F54" s="0" t="n">
+        <v>457782</v>
+      </c>
+      <c r="G54" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H54" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="I54" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J54" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K54" s="1" t="s">
+      <c r="I54" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K54" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="M54" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N54" s="1" t="n">
+      <c r="M54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="O54" s="1" t="n">
+      <c r="O54" s="0" t="n">
         <v>15.36</v>
       </c>
-      <c r="P54" s="1" t="n">
+      <c r="P54" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="Q54" s="1" t="n">
+      <c r="Q54" s="0" t="n">
         <v>28.65</v>
       </c>
-      <c r="R54" s="1" t="n">
+      <c r="R54" s="0" t="n">
         <v>555.99</v>
       </c>
-      <c r="S54" s="1" t="s">
+      <c r="S54" s="0" t="s">
         <v>278</v>
       </c>
-      <c r="T54" s="1" t="s">
+      <c r="T54" s="0" t="s">
         <v>279</v>
       </c>
-      <c r="U54" s="1" t="s">
+      <c r="U54" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="V54" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W54" s="1" t="s">
+      <c r="V54" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="W54" s="0" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="0" t="s">
         <v>281</v>
       </c>
-      <c r="B55" s="1" t="n">
+      <c r="B55" s="0" t="n">
         <v>919037568446</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E55" s="2" t="n">
+      <c r="D55" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E55" s="1" t="n">
         <v>45337</v>
       </c>
-      <c r="F55" s="1" t="n">
-        <v>457782</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H55" s="1" t="s">
+      <c r="F55" s="0" t="n">
+        <v>457782</v>
+      </c>
+      <c r="G55" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H55" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="I55" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J55" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K55" s="1" t="s">
+      <c r="I55" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K55" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="M55" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N55" s="1" t="n">
+      <c r="M55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="O55" s="1" t="n">
+      <c r="O55" s="0" t="n">
         <v>15.36</v>
       </c>
-      <c r="P55" s="1" t="n">
+      <c r="P55" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="Q55" s="1" t="n">
+      <c r="Q55" s="0" t="n">
         <v>28.65</v>
       </c>
-      <c r="R55" s="1" t="n">
+      <c r="R55" s="0" t="n">
         <v>555.99</v>
       </c>
-      <c r="S55" s="1" t="s">
+      <c r="S55" s="0" t="s">
         <v>283</v>
       </c>
-      <c r="T55" s="1" t="s">
+      <c r="T55" s="0" t="s">
         <v>284</v>
       </c>
-      <c r="U55" s="1" t="s">
+      <c r="U55" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="V55" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W55" s="1" t="s">
+      <c r="V55" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="W55" s="0" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="0" t="s">
         <v>287</v>
       </c>
-      <c r="B56" s="1" t="n">
+      <c r="B56" s="0" t="n">
         <v>919387061119</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E56" s="2" t="n">
+      <c r="D56" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E56" s="1" t="n">
         <v>45337</v>
       </c>
-      <c r="F56" s="1" t="n">
-        <v>457782</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H56" s="1" t="s">
+      <c r="F56" s="0" t="n">
+        <v>457782</v>
+      </c>
+      <c r="G56" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H56" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="I56" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J56" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K56" s="1" t="s">
+      <c r="I56" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K56" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="M56" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N56" s="1" t="n">
+      <c r="M56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="O56" s="1" t="n">
+      <c r="O56" s="0" t="n">
         <v>15.36</v>
       </c>
-      <c r="P56" s="1" t="n">
+      <c r="P56" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="Q56" s="1" t="n">
+      <c r="Q56" s="0" t="n">
         <v>28.65</v>
       </c>
-      <c r="R56" s="1" t="n">
+      <c r="R56" s="0" t="n">
         <v>555.99</v>
       </c>
-      <c r="S56" s="1" t="s">
+      <c r="S56" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="T56" s="1" t="s">
+      <c r="T56" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="U56" s="1" t="s">
+      <c r="U56" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="V56" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W56" s="1" t="s">
+      <c r="V56" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="W56" s="0" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="0" t="s">
         <v>291</v>
       </c>
-      <c r="B57" s="1" t="n">
+      <c r="B57" s="0" t="n">
         <v>918123534618</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="0" t="s">
         <v>292</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E57" s="2" t="n">
+      <c r="D57" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E57" s="1" t="n">
         <v>45338</v>
       </c>
-      <c r="F57" s="1" t="n">
-        <v>457782</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H57" s="1" t="s">
+      <c r="F57" s="0" t="n">
+        <v>457782</v>
+      </c>
+      <c r="G57" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H57" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="I57" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J57" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K57" s="1" t="s">
+      <c r="I57" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K57" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="M57" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" s="1" t="n">
+      <c r="M57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="O57" s="1" t="n">
+      <c r="O57" s="0" t="n">
         <v>15.36</v>
       </c>
-      <c r="P57" s="1" t="n">
+      <c r="P57" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="Q57" s="1" t="n">
+      <c r="Q57" s="0" t="n">
         <v>28.65</v>
       </c>
-      <c r="R57" s="1" t="n">
+      <c r="R57" s="0" t="n">
         <v>555.99</v>
       </c>
-      <c r="S57" s="1" t="s">
+      <c r="S57" s="0" t="s">
         <v>294</v>
       </c>
-      <c r="T57" s="1" t="s">
+      <c r="T57" s="0" t="s">
         <v>295</v>
       </c>
-      <c r="U57" s="1" t="s">
+      <c r="U57" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="V57" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W57" s="1" t="s">
+      <c r="V57" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="W57" s="0" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="B58" s="1" t="n">
+      <c r="B58" s="0" t="n">
         <v>919947205485</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="0" t="s">
         <v>298</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E58" s="2" t="n">
+      <c r="D58" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58" s="1" t="n">
         <v>45338</v>
       </c>
-      <c r="F58" s="1" t="n">
-        <v>457782</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H58" s="1" t="s">
+      <c r="F58" s="0" t="n">
+        <v>457782</v>
+      </c>
+      <c r="G58" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H58" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="I58" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J58" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K58" s="1" t="s">
+      <c r="I58" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K58" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="M58" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N58" s="1" t="n">
+      <c r="M58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="O58" s="1" t="n">
+      <c r="O58" s="0" t="n">
         <v>15.36</v>
       </c>
-      <c r="P58" s="1" t="n">
+      <c r="P58" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="Q58" s="1" t="n">
+      <c r="Q58" s="0" t="n">
         <v>28.65</v>
       </c>
-      <c r="R58" s="1" t="n">
+      <c r="R58" s="0" t="n">
         <v>555.99</v>
       </c>
-      <c r="S58" s="1" t="s">
+      <c r="S58" s="0" t="s">
         <v>299</v>
       </c>
-      <c r="T58" s="1" t="s">
+      <c r="T58" s="0" t="s">
         <v>300</v>
       </c>
-      <c r="U58" s="1" t="s">
+      <c r="U58" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="V58" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W58" s="1" t="s">
+      <c r="V58" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="W58" s="0" t="s">
         <v>286</v>
       </c>
     </row>

--- a/data/Transactions.xlsx
+++ b/data/Transactions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="404">
   <si>
     <t>Student Name</t>
   </si>
@@ -85,37 +85,1147 @@
     <t>Postpaid Deduction</t>
   </si>
   <si>
-    <t>Shahina TK</t>
-  </si>
-  <si>
-    <t>mgefsaudi@gmail.com</t>
+    <t>Jafar Sha S 5</t>
+  </si>
+  <si>
+    <t>jafarshajaf4@gmail.com</t>
   </si>
   <si>
     <t>Kerala</t>
   </si>
   <si>
-    <t xml:space="preserve">Anti-Ageing </t>
-  </si>
-  <si>
-    <t>Sat Jun 28 2025 00:00:00 GMT+0000 (Coordinated Universal Time)</t>
+    <t xml:space="preserve">Happy Mom </t>
+  </si>
+  <si>
+    <t>Fri Feb 07 2025 00:00:00 GMT+0000 (Coordinated Universal Time)</t>
   </si>
   <si>
     <t>COURSE</t>
   </si>
   <si>
+    <t>student</t>
+  </si>
+  <si>
+    <t>pay_NXowlB26pw63N9</t>
+  </si>
+  <si>
+    <t>trf_NXowBK98MJMbB0</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1707272136975.pdf</t>
+  </si>
+  <si>
+    <t>Full Payment</t>
+  </si>
+  <si>
+    <t>NADIRSHAH</t>
+  </si>
+  <si>
+    <t>pay_NXqTLl8Hb1ovcg</t>
+  </si>
+  <si>
+    <t>trf_NXqT8Hc9dLNTh1</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1707277422058.pdf</t>
+  </si>
+  <si>
+    <t>Jamal T H</t>
+  </si>
+  <si>
+    <t>pay_NXqf9kGU8mzWeX</t>
+  </si>
+  <si>
+    <t>trf_NXqep0C9TiMeHi</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1707278090764.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salimma Luke </t>
+  </si>
+  <si>
+    <t>pay_NXqvvrMFIXoxmZ</t>
+  </si>
+  <si>
+    <t>trf_NXqt0lhcHuf6Uy</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1707279063041.pdf</t>
+  </si>
+  <si>
+    <t>Satheesh Kr</t>
+  </si>
+  <si>
+    <t>pay_NXrgdGchEbMf7h</t>
+  </si>
+  <si>
+    <t>trf_NXrgLsQCSX2kYp</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1707281714280.pdf</t>
+  </si>
+  <si>
+    <t>Sreejavijyan</t>
+  </si>
+  <si>
+    <t>sreejavijayan81@gmail.com</t>
+  </si>
+  <si>
+    <t>pay_NXrl4f0ol1nMNJ</t>
+  </si>
+  <si>
+    <t>trf_NXrkxAEatLQbrH</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1707281950786.pdf</t>
+  </si>
+  <si>
+    <t>vandhana santhosh</t>
+  </si>
+  <si>
+    <t>vandhanag02@gmail.com</t>
+  </si>
+  <si>
+    <t>Himachal Pradesh</t>
+  </si>
+  <si>
+    <t>pay_NXuryDggkVilOQ</t>
+  </si>
+  <si>
+    <t>trf_NXurlrDHfnQm8Y</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1707292904588.pdf</t>
+  </si>
+  <si>
+    <t>Bipin K Babu</t>
+  </si>
+  <si>
+    <t>pay_NXusd6SVGD2ObY</t>
+  </si>
+  <si>
+    <t>trf_NXurhemb64Df1i</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1707292956983.pdf</t>
+  </si>
+  <si>
+    <t>Veerabhadran 5</t>
+  </si>
+  <si>
+    <t>veerabhadran2013@gmail.com</t>
+  </si>
+  <si>
+    <t>pay_NXz0dJpQotnxSe</t>
+  </si>
+  <si>
+    <t>trf_NXz0R8QqL7EFax</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1707307489650.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adithya Jayaram </t>
+  </si>
+  <si>
+    <t>adithyajay04@gmail.com</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
+  </si>
+  <si>
+    <t>pay_NY2bgaZ3w7wWnu</t>
+  </si>
+  <si>
+    <t>trf_NY2Z68od8oxcKK</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1707320151802.pdf</t>
+  </si>
+  <si>
+    <t>Sreekumari</t>
+  </si>
+  <si>
+    <t>sreekumarisk3@gmail.com</t>
+  </si>
+  <si>
+    <t>pay_NY2bLaWxIW4Tr0</t>
+  </si>
+  <si>
+    <t>trf_NY2b5s1uxjeOdI</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1707320155456.pdf</t>
+  </si>
+  <si>
+    <t>RAJULA P M</t>
+  </si>
+  <si>
+    <t>rajulapm2018@gmail.com</t>
+  </si>
+  <si>
+    <t>pay_NY4pvJI5Il3RHx</t>
+  </si>
+  <si>
+    <t>trf_NY4pXQiyTiaQtU</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1707328014114.pdf</t>
+  </si>
+  <si>
+    <t>Afsal Abdulshukkoor</t>
+  </si>
+  <si>
+    <t>abdhulshukoors@gmail.com</t>
+  </si>
+  <si>
+    <t>Sat Feb 08 2025 00:00:00 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>pay_NYFiQhPxKfMRSe</t>
+  </si>
+  <si>
+    <t>trf_NYFiEzdyNccVaK</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1707366322274.pdf</t>
+  </si>
+  <si>
+    <t>Megha Ajith</t>
+  </si>
+  <si>
+    <t>pay_NYItNYjIsOchDc</t>
+  </si>
+  <si>
+    <t>trf_NYIt7newNNkRhe</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1707377510716.pdf</t>
+  </si>
+  <si>
+    <t>E Sulochana</t>
+  </si>
+  <si>
+    <t>pay_NYIvjweJiIjBze</t>
+  </si>
+  <si>
+    <t>trf_NYIukLLTd2WmBa</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1707377666275.pdf</t>
+  </si>
+  <si>
+    <t>Lalitha Rajagopal</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>pay_NYJ31r6YudgwEJ</t>
+  </si>
+  <si>
+    <t>trf_NYJ27ZnxHGlIFw</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1707378054817.pdf</t>
+  </si>
+  <si>
+    <t>Shabu E B</t>
+  </si>
+  <si>
+    <t>shabuebiob@gmail.com</t>
+  </si>
+  <si>
+    <t>pay_NYNGwj14B0pOJR</t>
+  </si>
+  <si>
+    <t>trf_NYNGmjQoc6D02U</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1707392929556.pdf</t>
+  </si>
+  <si>
+    <t>Ambily Roshan</t>
+  </si>
+  <si>
+    <t>ambilyroshan@gmail.com</t>
+  </si>
+  <si>
+    <t>pay_NYPB6PEXd1vymr</t>
+  </si>
+  <si>
+    <t>trf_NYPAvubcqBEiVH</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1707399640891.pdf</t>
+  </si>
+  <si>
+    <t>Thasniya</t>
+  </si>
+  <si>
+    <t>thasnimst@gmail.com</t>
+  </si>
+  <si>
+    <t>pay_NYS98EzQw8Sahk</t>
+  </si>
+  <si>
+    <t>trf_NYS8xlEH5EuG7y</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1707410090079.pdf</t>
+  </si>
+  <si>
+    <t>Rafeek PM</t>
+  </si>
+  <si>
+    <t>Sun Feb 09 2025 00:00:00 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>pay_NYd80LBFS7vOvB</t>
+  </si>
+  <si>
+    <t>trf_NYd7hZL4Y2DWhl</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1707448765935.pdf</t>
+  </si>
+  <si>
+    <t>Sefik Pnd</t>
+  </si>
+  <si>
+    <t>shafeekpnd0@gmail.com</t>
+  </si>
+  <si>
+    <t>pay_NYfweiH8f3VVvu</t>
+  </si>
+  <si>
+    <t>trf_NYfw6SCARjSzTK</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1707458754363.pdf</t>
+  </si>
+  <si>
+    <t>Haseena K A</t>
+  </si>
+  <si>
+    <t>haseenaazeez1@gmail.com</t>
+  </si>
+  <si>
+    <t>pay_NYiMBuifDiDf0c</t>
+  </si>
+  <si>
+    <t>trf_NYiJlF98NcHZzN</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1707467179141.pdf</t>
+  </si>
+  <si>
+    <t>Sasikala P. R</t>
+  </si>
+  <si>
+    <t>pay_NYjTVfJ7ltI5XE</t>
+  </si>
+  <si>
+    <t>trf_NYjSmng6vb7w0b</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1707471129241.pdf</t>
+  </si>
+  <si>
+    <t>Mini P R</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 2025 00:00:00 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>pay_NZ2apLdaTZthit</t>
+  </si>
+  <si>
+    <t>trf_NZ2aUD2alvv1pL</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1707538446914.pdf</t>
+  </si>
+  <si>
+    <t>Alma Nasrin</t>
+  </si>
+  <si>
+    <t>pay_NZ2mKcrhdREwDu</t>
+  </si>
+  <si>
+    <t>trf_NZ2mEx4YzfydA9</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1707539103579.pdf</t>
+  </si>
+  <si>
+    <t>Rejani. B</t>
+  </si>
+  <si>
+    <t>pay_NZ4tZUa88ZpJaL</t>
+  </si>
+  <si>
+    <t>trf_NZ4tR6QLxlXRg3</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1707546554531.pdf</t>
+  </si>
+  <si>
+    <t>Ramy Muhamma</t>
+  </si>
+  <si>
+    <t>pay_NZ4zlNy2sJMeUX</t>
+  </si>
+  <si>
+    <t>trf_NZ4zEVVCAOYQzh</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1707546910616.pdf</t>
+  </si>
+  <si>
+    <t>Rahmath Hydrose</t>
+  </si>
+  <si>
+    <t>pay_NZ7UEg527yPVud</t>
+  </si>
+  <si>
+    <t>trf_NZ7U4LItJtXZGt</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1707555684140.pdf</t>
+  </si>
+  <si>
+    <t>Abdul Vahid</t>
+  </si>
+  <si>
+    <t>mavahid123@gmail.com</t>
+  </si>
+  <si>
+    <t>pay_NZ7Y8Fg1rayzOT</t>
+  </si>
+  <si>
+    <t>trf_NZ7XtbJ3O1hIgL</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1707555913004.pdf</t>
+  </si>
+  <si>
+    <t>Bijis P Baby</t>
+  </si>
+  <si>
+    <t>bijib296@gmail.com</t>
+  </si>
+  <si>
+    <t>pay_NZ7maTRd2u1zEW</t>
+  </si>
+  <si>
+    <t>trf_NZ7jpkZ3jeGRAc</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1707556761898.pdf</t>
+  </si>
+  <si>
+    <t>Reji Kottayam Cr Student</t>
+  </si>
+  <si>
+    <t>pay_NZ8qRssRESgXeP</t>
+  </si>
+  <si>
+    <t>trf_NZ8pNnfq0USoa6</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1707560473323.pdf</t>
+  </si>
+  <si>
+    <t>Sajai Santhosh, Santhosh Nivas, Velimanam, Kannur</t>
+  </si>
+  <si>
+    <t>pay_NZALhhEA7Th7Bm</t>
+  </si>
+  <si>
+    <t>trf_NZALWIrXvQ1UGR</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1707565758508.pdf</t>
+  </si>
+  <si>
+    <t>Gopakumar</t>
+  </si>
+  <si>
+    <t>gknkm1964@gmail.com</t>
+  </si>
+  <si>
+    <t>pay_NZAfrnh1IYfC8S</t>
+  </si>
+  <si>
+    <t>trf_NZAfbJaihjN5Xc</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1707566921158.pdf</t>
+  </si>
+  <si>
+    <t>Riya Reji</t>
+  </si>
+  <si>
+    <t>riyarejim@gmail.com</t>
+  </si>
+  <si>
+    <t>pay_NZB47LMhoELK6P</t>
+  </si>
+  <si>
+    <t>trf_NZB3l9YdOrMqUn</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1707568312124.pdf</t>
+  </si>
+  <si>
+    <t>PRIYANKA. S. NAIR</t>
+  </si>
+  <si>
+    <t>pay_NZBUwV86JAgfQI</t>
+  </si>
+  <si>
+    <t>trf_NZBUk3AFX6Re0u</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1707569962828.pdf</t>
+  </si>
+  <si>
+    <t>Renjana Devi</t>
+  </si>
+  <si>
+    <t>pay_NZFUQfBbQ8vFD6</t>
+  </si>
+  <si>
+    <t>trf_NZFTIpBE4QMRmi</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1707583877234.pdf</t>
+  </si>
+  <si>
+    <t>Suresh Kumar Suji 27</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 2025 00:00:00 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>pay_NZIPVHwReWv0pe</t>
+  </si>
+  <si>
+    <t>trf_NZIPHrDDcOpsmB</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1707594156544.pdf</t>
+  </si>
+  <si>
+    <t>Elamma Jose</t>
+  </si>
+  <si>
+    <t>pay_NZT8WWFHmLCZz2</t>
+  </si>
+  <si>
+    <t>trf_NZT5uG00fLcOmj</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1707631927873.pdf</t>
+  </si>
+  <si>
+    <t>Gangavinayak</t>
+  </si>
+  <si>
+    <t>gangavinayakts@gmail.com</t>
+  </si>
+  <si>
+    <t>pay_NZU3UzykV41EGw</t>
+  </si>
+  <si>
+    <t>trf_NZTzqD73m4gOGB</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1707635152351.pdf</t>
+  </si>
+  <si>
+    <t>Jayanandan P</t>
+  </si>
+  <si>
+    <t>pay_NZd2MmjjGSdy5U</t>
+  </si>
+  <si>
+    <t>trf_NZd1TFCWLVGP6M</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1707666852411.pdf</t>
+  </si>
+  <si>
+    <t>Ciciya Baby</t>
+  </si>
+  <si>
+    <t>ciciya071@gmail.com</t>
+  </si>
+  <si>
+    <t>pay_NZepsJDKlHB9rI</t>
+  </si>
+  <si>
+    <t>trf_NZejl9m6J9DbWR</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1707673154170.pdf</t>
+  </si>
+  <si>
+    <t>Sadeera Udhyakumar</t>
+  </si>
+  <si>
+    <t>pay_NZfXuVccJR0uF1</t>
+  </si>
+  <si>
+    <t>trf_NZfXhV3YwDlH3O</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1707675632124.pdf</t>
+  </si>
+  <si>
+    <t>subaida Najeeb</t>
+  </si>
+  <si>
+    <t>subaidanajeeb75@gmail.com</t>
+  </si>
+  <si>
+    <t>Wed Feb 12 2025 00:00:00 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
     <t>tutor</t>
   </si>
   <si>
-    <t>pay_OSANUxJQ8CilM9</t>
-  </si>
-  <si>
-    <t>trf_OSANNCtgH6fZgh</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/prod-data-buckets-store-assets/AntiAgeing__1719574573284.pdf</t>
-  </si>
-  <si>
-    <t>Full Payment</t>
+    <t>pay_NZnnHpgBA28xjZ</t>
+  </si>
+  <si>
+    <t>trf_NZnn36byn2HjE4</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1707704668823.pdf</t>
+  </si>
+  <si>
+    <t>Sunil Swtd Yoga</t>
+  </si>
+  <si>
+    <t>pay_NZsl5ycQgFHClz</t>
+  </si>
+  <si>
+    <t>trf_NZskpslUzVsATI</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1707722152774.pdf</t>
+  </si>
+  <si>
+    <t>Dr Snovy Manjooran</t>
+  </si>
+  <si>
+    <t>josnovy00@gmail.com</t>
+  </si>
+  <si>
+    <t>pay_NZtb38LlzOcoo7</t>
+  </si>
+  <si>
+    <t>trf_NZtZqjAkKQEQXC</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1707725154971.pdf</t>
+  </si>
+  <si>
+    <t>Nahas S</t>
+  </si>
+  <si>
+    <t>nahasshamsudheen8@gmail.com</t>
+  </si>
+  <si>
+    <t>pay_NZuQvRVmhNBbhj</t>
+  </si>
+  <si>
+    <t>trf_NZuN542C315pTH</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1707728064473.pdf</t>
+  </si>
+  <si>
+    <t>Girija</t>
+  </si>
+  <si>
+    <t>pay_NZvXV71Xxqq44I</t>
+  </si>
+  <si>
+    <t>trf_NZvXCVg8ApkO4l</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1707731960338.pdf</t>
+  </si>
+  <si>
+    <t>Jiji IPA</t>
+  </si>
+  <si>
+    <t>Thu Feb 13 2025 00:00:00 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>pay_NaF1xwdE0vo65S</t>
+  </si>
+  <si>
+    <t>trf_NaF1PNc1ofxxJo</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1707800584108.pdf</t>
+  </si>
+  <si>
+    <t>Aswathi E S</t>
+  </si>
+  <si>
+    <t>pay_NaLSRgjY4wwrK0</t>
+  </si>
+  <si>
+    <t>trf_NaLQbF1xpb15mI</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1707823241113.pdf</t>
+  </si>
+  <si>
+    <t>Ansila Rafeek</t>
+  </si>
+  <si>
+    <t>pay_NaQLb3souM7AeC</t>
+  </si>
+  <si>
+    <t>trf_NaQKlsA7fbCTOY</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1707840452652.pdf</t>
+  </si>
+  <si>
+    <t>à´œàµ†à´¸àµà´¸à´¿ Joy</t>
+  </si>
+  <si>
+    <t>Fri Feb 14 2025 00:00:00 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>pay_NagGMlBFCBSTel</t>
+  </si>
+  <si>
+    <t>trf_Nag4OTRqr0NQg3</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1707896490859.pdf</t>
+  </si>
+  <si>
+    <t>Nissar Azeez</t>
+  </si>
+  <si>
+    <t>pay_NahwsssxWVTGhJ</t>
+  </si>
+  <si>
+    <t>trf_NahwZfZ1nlDo5D</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1707902430659.pdf</t>
+  </si>
+  <si>
+    <t>Sreejalakshmy</t>
+  </si>
+  <si>
+    <t>srilakshmys@gmail.com</t>
+  </si>
+  <si>
+    <t>pay_Nai0Al792LlAdP</t>
+  </si>
+  <si>
+    <t>trf_NahzQNb4ZBCDQ9</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1707902629459.pdf</t>
+  </si>
+  <si>
+    <t>Valsamma Augustine</t>
+  </si>
+  <si>
+    <t>Sat Feb 15 2025 00:00:00 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>pay_Nb6KCZ6cEkslGw</t>
+  </si>
+  <si>
+    <t>trf_Nb6JughXzTOf7d</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1707988281132.pdf</t>
+  </si>
+  <si>
+    <t>C M Anilkumar</t>
+  </si>
+  <si>
+    <t>pay_NbA3a9zmwXewV5</t>
+  </si>
+  <si>
+    <t>trf_NbA2lR04cnHIWl</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1708001437351.pdf</t>
+  </si>
+  <si>
+    <t>Nidheesh Kumar N</t>
+  </si>
+  <si>
+    <t>mail2nidheesh@gmail.com</t>
+  </si>
+  <si>
+    <t>Sun Feb 16 2025 00:00:00 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>pay_NbXxpRte73bA9v</t>
+  </si>
+  <si>
+    <t>trf_NbXxJDWgVq3IJ1</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1708085605551.pdf</t>
+  </si>
+  <si>
+    <t>Ajayaghosh</t>
+  </si>
+  <si>
+    <t>arunstudioklv@gmail.com</t>
+  </si>
+  <si>
+    <t>pay_NbbMk1bkLqI45A</t>
+  </si>
+  <si>
+    <t>trf_NbbMaMwF7TOyNA</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1708097603030.pdf</t>
+  </si>
+  <si>
+    <t>Nazer Pattarumadom</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 2025 00:00:00 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>pay_NbvjwrV6fYWLkP</t>
+  </si>
+  <si>
+    <t>trf_NbvjlhZ0eff7eY</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1708169337126.pdf</t>
+  </si>
+  <si>
+    <t>Mini. M. M</t>
+  </si>
+  <si>
+    <t>pay_Nc0Fjta5FWdFWt</t>
+  </si>
+  <si>
+    <t>trf_Nc0FYoea1xFFpH</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1708185226991.pdf</t>
+  </si>
+  <si>
+    <t>Soumya K R</t>
+  </si>
+  <si>
+    <t>soumyakr06@gmail.com</t>
+  </si>
+  <si>
+    <t>Tue Feb 18 2025 00:00:00 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>pay_NcMH7XywtCsGBq</t>
+  </si>
+  <si>
+    <t>trf_NcMGpgfGhBkVh5</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1708262803815.pdf</t>
+  </si>
+  <si>
+    <t>Anu Bhaskaran</t>
+  </si>
+  <si>
+    <t>anubhaskaran888@gmail.com</t>
+  </si>
+  <si>
+    <t>pay_NcOwqAJTNc3buK</t>
+  </si>
+  <si>
+    <t>trf_NcOwcKRlMOQPrb</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1708272195994.pdf</t>
+  </si>
+  <si>
+    <t>Anitha Satheesh</t>
+  </si>
+  <si>
+    <t>anithaperalath@gmail.com</t>
+  </si>
+  <si>
+    <t>Wed Feb 19 2025 00:00:00 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>pay_NceOjGOIBAWBSx</t>
+  </si>
+  <si>
+    <t>trf_NceM5it6nTfsga</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1708326602799.pdf</t>
+  </si>
+  <si>
+    <t>Geetha Raghu917@gmail.com</t>
+  </si>
+  <si>
+    <t>geetharaghu917@gmail.com</t>
+  </si>
+  <si>
+    <t>pay_Ncfm2OdsQfSfz2</t>
+  </si>
+  <si>
+    <t>trf_NcfkaFUPiRFdJ2</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1708331458946.pdf</t>
+  </si>
+  <si>
+    <t>Bindhu Mainakam</t>
+  </si>
+  <si>
+    <t>beesmainakam@gmail.com</t>
+  </si>
+  <si>
+    <t>pay_Nchg1DKNN9zRu6</t>
+  </si>
+  <si>
+    <t>trf_Nchfd2DTUIAASd</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1708338168550.pdf</t>
+  </si>
+  <si>
+    <t>Rijesh.K</t>
+  </si>
+  <si>
+    <t>rijeshparothidil@gmail.com</t>
+  </si>
+  <si>
+    <t>pay_NciQ6oPz507naS</t>
+  </si>
+  <si>
+    <t>trf_NciPbBSH4BISi3</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1708340766648.pdf</t>
+  </si>
+  <si>
+    <t>Ajimesh P</t>
+  </si>
+  <si>
+    <t>ajimeshp21@gmail.com</t>
+  </si>
+  <si>
+    <t>pay_Nck6xyTTgFZPRj</t>
+  </si>
+  <si>
+    <t>trf_Nck6qYKGXkdPGV</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1708346733650.pdf</t>
+  </si>
+  <si>
+    <t>Deepak Sugathan</t>
+  </si>
+  <si>
+    <t>deepaksugathan81@gmail.com</t>
+  </si>
+  <si>
+    <t>pay_NckbTGgbWFseDz</t>
+  </si>
+  <si>
+    <t>trf_NckbFfHrLqZTCz</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1708348453007.pdf</t>
+  </si>
+  <si>
+    <t>Reshmi Saju</t>
+  </si>
+  <si>
+    <t>reshmisaju76@gmail.com</t>
+  </si>
+  <si>
+    <t>pay_NclpLumTIe9KD5</t>
+  </si>
+  <si>
+    <t>trf_NclmxtokcYP7y7</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1708352764355.pdf</t>
+  </si>
+  <si>
+    <t>Reshma K</t>
+  </si>
+  <si>
+    <t>reshmasasi1986@gmail.com</t>
+  </si>
+  <si>
+    <t>Thu Feb 20 2025 00:00:00 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>pay_Nd97VbUa1O6XKK</t>
+  </si>
+  <si>
+    <t>trf_Nd97GGppYKPtQE</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1708434792356.pdf</t>
+  </si>
+  <si>
+    <t>Sumith V</t>
+  </si>
+  <si>
+    <t>sumithvtkr@gmail.com</t>
+  </si>
+  <si>
+    <t>Sat Feb 22 2025 00:00:00 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>pay_Ndohh8GnPMY93l</t>
+  </si>
+  <si>
+    <t>trf_NdogxDSb5ML3BD</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1708581236789.pdf</t>
+  </si>
+  <si>
+    <t>Nisha Najeebkhan</t>
+  </si>
+  <si>
+    <t>hazzgraphics@gmail.com</t>
+  </si>
+  <si>
+    <t>pay_NdrLSYvwlJK2Rr</t>
+  </si>
+  <si>
+    <t>trf_NdrKav8753fGfU</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1708590542668.pdf</t>
+  </si>
+  <si>
+    <t>Prince K V</t>
+  </si>
+  <si>
+    <t>Sun Feb 23 2025 00:00:00 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>pay_NeO4fknCMcAxVv</t>
+  </si>
+  <si>
+    <t>trf_NeO4JqTUs17s7T</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1708706024014.pdf</t>
+  </si>
+  <si>
+    <t>Abdul Azees</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 2025 00:00:00 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>pay_NeaqfPrxzyf61G</t>
+  </si>
+  <si>
+    <t>trf_NeaqStl0Mbmkxk</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1708750787004.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nejumol </t>
+  </si>
+  <si>
+    <t>chinnujinesh2795@gmail.com</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 2025 00:00:00 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>pay_NfTE3ixYedP5qy</t>
+  </si>
+  <si>
+    <t>trf_NfTDqd76w7YJgy</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1708942284284.pdf</t>
+  </si>
+  <si>
+    <t>Karthika Mohan</t>
+  </si>
+  <si>
+    <t>kkmkarthika@gmail.com</t>
+  </si>
+  <si>
+    <t>Thu Feb 27 2025 00:00:00 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>pay_NfupnRs9sGeQsW</t>
+  </si>
+  <si>
+    <t>trf_Nfupcj3Z0vXiFI</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1709039517126.pdf</t>
+  </si>
+  <si>
+    <t>Bindhu Santhosh</t>
+  </si>
+  <si>
+    <t>pay_NfxzKHGA3EN1Gs</t>
+  </si>
+  <si>
+    <t>trf_Nfxz9BH6kz3GSt</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1709050619436.pdf</t>
+  </si>
+  <si>
+    <t>Subhash PD</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 2025 00:00:00 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>pay_NgCPbb6rDgEdLq</t>
+  </si>
+  <si>
+    <t>trf_NgCPQlijwCFpzy</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1709101513994.pdf</t>
+  </si>
+  <si>
+    <t>Lathy Nair R.S</t>
+  </si>
+  <si>
+    <t>Sat Mar 01 2025 00:00:00 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>pay_Nh0NzLJ4De1KXo</t>
+  </si>
+  <si>
+    <t>trf_Nh0Ne0eUKp3Duc</t>
+  </si>
+  <si>
+    <t>https://prod-data-buckets-store-assets.oss-ap-south-1.aliyuncs.com/Happy_Mom__1709277398363.pdf</t>
   </si>
 </sst>
 </file>
@@ -124,12 +1234,19 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="dd\-mm\-yyyy"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,16 +1263,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -169,8 +1286,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -184,7 +1309,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -205,32 +1361,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -244,28 +1376,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -290,6 +1400,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -302,7 +1418,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,13 +1460,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,103 +1568,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,37 +1580,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,11 +1618,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,17 +1681,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -593,66 +1703,66 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -978,17 +2088,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:W79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.8888888888889" customWidth="1"/>
-    <col min="2" max="2" width="21.2222222222222" customWidth="1"/>
-    <col min="3" max="3" width="23.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="19.8888888888889" customWidth="1"/>
+    <col min="2" max="2" width="27.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -1067,7 +2176,7 @@
         <v>23</v>
       </c>
       <c r="B2">
-        <v>918075174244</v>
+        <v>918848168067</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
@@ -1076,10 +2185,10 @@
         <v>25</v>
       </c>
       <c r="E2" s="1">
-        <v>45471</v>
+        <v>45329</v>
       </c>
       <c r="F2">
-        <v>234365</v>
+        <v>457782</v>
       </c>
       <c r="G2" t="s">
         <v>26</v>
@@ -1100,19 +2209,19 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>600</v>
+        <v>513.14</v>
       </c>
       <c r="O2">
-        <v>15.36</v>
+        <v>13.14</v>
       </c>
       <c r="P2">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q2">
-        <v>28.65</v>
+        <v>24.5</v>
       </c>
       <c r="R2">
-        <v>555.99</v>
+        <v>475.5</v>
       </c>
       <c r="S2" t="s">
         <v>30</v>
@@ -1124,6 +2233,4894 @@
         <v>32</v>
       </c>
       <c r="V2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3">
+        <v>917594019275</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1">
+        <v>45329</v>
+      </c>
+      <c r="F3">
+        <v>457782</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>513.14</v>
+      </c>
+      <c r="O3">
+        <v>13.14</v>
+      </c>
+      <c r="P3">
+        <v>500</v>
+      </c>
+      <c r="Q3">
+        <v>24.5</v>
+      </c>
+      <c r="R3">
+        <v>475.5</v>
+      </c>
+      <c r="S3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4">
+        <v>919895331729</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1">
+        <v>45329</v>
+      </c>
+      <c r="F4">
+        <v>457782</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>513.14</v>
+      </c>
+      <c r="O4">
+        <v>13.14</v>
+      </c>
+      <c r="P4">
+        <v>500</v>
+      </c>
+      <c r="Q4">
+        <v>24.5</v>
+      </c>
+      <c r="R4">
+        <v>475.5</v>
+      </c>
+      <c r="S4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T4" t="s">
+        <v>40</v>
+      </c>
+      <c r="U4" t="s">
+        <v>41</v>
+      </c>
+      <c r="V4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5">
+        <v>919947532173</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1">
+        <v>45329</v>
+      </c>
+      <c r="F5">
+        <v>457782</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>513.14</v>
+      </c>
+      <c r="O5">
+        <v>13.14</v>
+      </c>
+      <c r="P5">
+        <v>500</v>
+      </c>
+      <c r="Q5">
+        <v>24.5</v>
+      </c>
+      <c r="R5">
+        <v>475.5</v>
+      </c>
+      <c r="S5" t="s">
+        <v>43</v>
+      </c>
+      <c r="T5" t="s">
+        <v>44</v>
+      </c>
+      <c r="U5" t="s">
+        <v>45</v>
+      </c>
+      <c r="V5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6">
+        <v>918289956114</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1">
+        <v>45329</v>
+      </c>
+      <c r="F6">
+        <v>457782</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>513.14</v>
+      </c>
+      <c r="O6">
+        <v>13.14</v>
+      </c>
+      <c r="P6">
+        <v>500</v>
+      </c>
+      <c r="Q6">
+        <v>24.5</v>
+      </c>
+      <c r="R6">
+        <v>475.5</v>
+      </c>
+      <c r="S6" t="s">
+        <v>47</v>
+      </c>
+      <c r="T6" t="s">
+        <v>48</v>
+      </c>
+      <c r="U6" t="s">
+        <v>49</v>
+      </c>
+      <c r="V6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>919497408473</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1">
+        <v>45329</v>
+      </c>
+      <c r="F7">
+        <v>457782</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>513.14</v>
+      </c>
+      <c r="O7">
+        <v>13.14</v>
+      </c>
+      <c r="P7">
+        <v>500</v>
+      </c>
+      <c r="Q7">
+        <v>24.5</v>
+      </c>
+      <c r="R7">
+        <v>475.5</v>
+      </c>
+      <c r="S7" t="s">
+        <v>52</v>
+      </c>
+      <c r="T7" t="s">
+        <v>53</v>
+      </c>
+      <c r="U7" t="s">
+        <v>54</v>
+      </c>
+      <c r="V7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8">
+        <v>919895827136</v>
+      </c>
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="1">
+        <v>45329</v>
+      </c>
+      <c r="F8">
+        <v>457782</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>513.14</v>
+      </c>
+      <c r="O8">
+        <v>13.14</v>
+      </c>
+      <c r="P8">
+        <v>500</v>
+      </c>
+      <c r="Q8">
+        <v>24.5</v>
+      </c>
+      <c r="R8">
+        <v>475.5</v>
+      </c>
+      <c r="S8" t="s">
+        <v>58</v>
+      </c>
+      <c r="T8" t="s">
+        <v>59</v>
+      </c>
+      <c r="U8" t="s">
+        <v>60</v>
+      </c>
+      <c r="V8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9">
+        <v>919188675510</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="1">
+        <v>45329</v>
+      </c>
+      <c r="F9">
+        <v>457782</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>513.14</v>
+      </c>
+      <c r="O9">
+        <v>13.14</v>
+      </c>
+      <c r="P9">
+        <v>500</v>
+      </c>
+      <c r="Q9">
+        <v>24.5</v>
+      </c>
+      <c r="R9">
+        <v>475.5</v>
+      </c>
+      <c r="S9" t="s">
+        <v>62</v>
+      </c>
+      <c r="T9" t="s">
+        <v>63</v>
+      </c>
+      <c r="U9" t="s">
+        <v>64</v>
+      </c>
+      <c r="V9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10">
+        <v>919746147662</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="1">
+        <v>45329</v>
+      </c>
+      <c r="F10">
+        <v>457782</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>513.14</v>
+      </c>
+      <c r="O10">
+        <v>13.14</v>
+      </c>
+      <c r="P10">
+        <v>500</v>
+      </c>
+      <c r="Q10">
+        <v>24.5</v>
+      </c>
+      <c r="R10">
+        <v>475.5</v>
+      </c>
+      <c r="S10" t="s">
+        <v>67</v>
+      </c>
+      <c r="T10" t="s">
+        <v>68</v>
+      </c>
+      <c r="U10" t="s">
+        <v>69</v>
+      </c>
+      <c r="V10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11">
+        <v>917994755833</v>
+      </c>
+      <c r="C11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="1">
+        <v>45329</v>
+      </c>
+      <c r="F11">
+        <v>457782</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>513.14</v>
+      </c>
+      <c r="O11">
+        <v>13.14</v>
+      </c>
+      <c r="P11">
+        <v>500</v>
+      </c>
+      <c r="Q11">
+        <v>24.5</v>
+      </c>
+      <c r="R11">
+        <v>475.5</v>
+      </c>
+      <c r="S11" t="s">
+        <v>73</v>
+      </c>
+      <c r="T11" t="s">
+        <v>74</v>
+      </c>
+      <c r="U11" t="s">
+        <v>75</v>
+      </c>
+      <c r="V11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12">
+        <v>919846056324</v>
+      </c>
+      <c r="C12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="1">
+        <v>45329</v>
+      </c>
+      <c r="F12">
+        <v>457782</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>513.14</v>
+      </c>
+      <c r="O12">
+        <v>13.14</v>
+      </c>
+      <c r="P12">
+        <v>500</v>
+      </c>
+      <c r="Q12">
+        <v>24.5</v>
+      </c>
+      <c r="R12">
+        <v>475.5</v>
+      </c>
+      <c r="S12" t="s">
+        <v>78</v>
+      </c>
+      <c r="T12" t="s">
+        <v>79</v>
+      </c>
+      <c r="U12" t="s">
+        <v>80</v>
+      </c>
+      <c r="V12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13">
+        <v>919747709056</v>
+      </c>
+      <c r="C13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="1">
+        <v>45329</v>
+      </c>
+      <c r="F13">
+        <v>457782</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>513.14</v>
+      </c>
+      <c r="O13">
+        <v>13.14</v>
+      </c>
+      <c r="P13">
+        <v>500</v>
+      </c>
+      <c r="Q13">
+        <v>24.5</v>
+      </c>
+      <c r="R13">
+        <v>475.5</v>
+      </c>
+      <c r="S13" t="s">
+        <v>83</v>
+      </c>
+      <c r="T13" t="s">
+        <v>84</v>
+      </c>
+      <c r="U13" t="s">
+        <v>85</v>
+      </c>
+      <c r="V13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14">
+        <v>918606817690</v>
+      </c>
+      <c r="C14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="1">
+        <v>45330</v>
+      </c>
+      <c r="F14">
+        <v>457782</v>
+      </c>
+      <c r="G14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" t="s">
+        <v>88</v>
+      </c>
+      <c r="I14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>513.14</v>
+      </c>
+      <c r="O14">
+        <v>13.14</v>
+      </c>
+      <c r="P14">
+        <v>500</v>
+      </c>
+      <c r="Q14">
+        <v>24.5</v>
+      </c>
+      <c r="R14">
+        <v>475.5</v>
+      </c>
+      <c r="S14" t="s">
+        <v>89</v>
+      </c>
+      <c r="T14" t="s">
+        <v>90</v>
+      </c>
+      <c r="U14" t="s">
+        <v>91</v>
+      </c>
+      <c r="V14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15">
+        <v>918089237747</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="1">
+        <v>45330</v>
+      </c>
+      <c r="F15">
+        <v>457782</v>
+      </c>
+      <c r="G15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>513.14</v>
+      </c>
+      <c r="O15">
+        <v>13.14</v>
+      </c>
+      <c r="P15">
+        <v>500</v>
+      </c>
+      <c r="Q15">
+        <v>24.5</v>
+      </c>
+      <c r="R15">
+        <v>475.5</v>
+      </c>
+      <c r="S15" t="s">
+        <v>93</v>
+      </c>
+      <c r="T15" t="s">
+        <v>94</v>
+      </c>
+      <c r="U15" t="s">
+        <v>95</v>
+      </c>
+      <c r="V15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16">
+        <v>919605349955</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="1">
+        <v>45330</v>
+      </c>
+      <c r="F16">
+        <v>457782</v>
+      </c>
+      <c r="G16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" t="s">
+        <v>88</v>
+      </c>
+      <c r="I16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>29</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>513.14</v>
+      </c>
+      <c r="O16">
+        <v>13.14</v>
+      </c>
+      <c r="P16">
+        <v>500</v>
+      </c>
+      <c r="Q16">
+        <v>24.5</v>
+      </c>
+      <c r="R16">
+        <v>475.5</v>
+      </c>
+      <c r="S16" t="s">
+        <v>97</v>
+      </c>
+      <c r="T16" t="s">
+        <v>98</v>
+      </c>
+      <c r="U16" t="s">
+        <v>99</v>
+      </c>
+      <c r="V16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17">
+        <v>919544011006</v>
+      </c>
+      <c r="D17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="1">
+        <v>45330</v>
+      </c>
+      <c r="F17">
+        <v>457782</v>
+      </c>
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" t="s">
+        <v>88</v>
+      </c>
+      <c r="I17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>513.14</v>
+      </c>
+      <c r="O17">
+        <v>13.14</v>
+      </c>
+      <c r="P17">
+        <v>500</v>
+      </c>
+      <c r="Q17">
+        <v>24.5</v>
+      </c>
+      <c r="R17">
+        <v>475.5</v>
+      </c>
+      <c r="S17" t="s">
+        <v>102</v>
+      </c>
+      <c r="T17" t="s">
+        <v>103</v>
+      </c>
+      <c r="U17" t="s">
+        <v>104</v>
+      </c>
+      <c r="V17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18">
+        <v>919446855722</v>
+      </c>
+      <c r="C18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="1">
+        <v>45330</v>
+      </c>
+      <c r="F18">
+        <v>457782</v>
+      </c>
+      <c r="G18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" t="s">
+        <v>88</v>
+      </c>
+      <c r="I18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
+        <v>29</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>513.14</v>
+      </c>
+      <c r="O18">
+        <v>13.14</v>
+      </c>
+      <c r="P18">
+        <v>500</v>
+      </c>
+      <c r="Q18">
+        <v>24.5</v>
+      </c>
+      <c r="R18">
+        <v>475.5</v>
+      </c>
+      <c r="S18" t="s">
+        <v>107</v>
+      </c>
+      <c r="T18" t="s">
+        <v>108</v>
+      </c>
+      <c r="U18" t="s">
+        <v>109</v>
+      </c>
+      <c r="V18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19">
+        <v>919746829341</v>
+      </c>
+      <c r="C19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="1">
+        <v>45330</v>
+      </c>
+      <c r="F19">
+        <v>457782</v>
+      </c>
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" t="s">
+        <v>88</v>
+      </c>
+      <c r="I19" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19" t="s">
+        <v>29</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>513.14</v>
+      </c>
+      <c r="O19">
+        <v>13.14</v>
+      </c>
+      <c r="P19">
+        <v>500</v>
+      </c>
+      <c r="Q19">
+        <v>24.5</v>
+      </c>
+      <c r="R19">
+        <v>475.5</v>
+      </c>
+      <c r="S19" t="s">
+        <v>112</v>
+      </c>
+      <c r="T19" t="s">
+        <v>113</v>
+      </c>
+      <c r="U19" t="s">
+        <v>114</v>
+      </c>
+      <c r="V19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20">
+        <v>919544519014</v>
+      </c>
+      <c r="C20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="1">
+        <v>45330</v>
+      </c>
+      <c r="F20">
+        <v>457782</v>
+      </c>
+      <c r="G20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" t="s">
+        <v>88</v>
+      </c>
+      <c r="I20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
+        <v>29</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>513.14</v>
+      </c>
+      <c r="O20">
+        <v>13.14</v>
+      </c>
+      <c r="P20">
+        <v>500</v>
+      </c>
+      <c r="Q20">
+        <v>24.5</v>
+      </c>
+      <c r="R20">
+        <v>475.5</v>
+      </c>
+      <c r="S20" t="s">
+        <v>117</v>
+      </c>
+      <c r="T20" t="s">
+        <v>118</v>
+      </c>
+      <c r="U20" t="s">
+        <v>119</v>
+      </c>
+      <c r="V20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21">
+        <v>919446488954</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="1">
+        <v>45331</v>
+      </c>
+      <c r="F21">
+        <v>457782</v>
+      </c>
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" t="s">
+        <v>121</v>
+      </c>
+      <c r="I21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21" t="s">
+        <v>29</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>513.14</v>
+      </c>
+      <c r="O21">
+        <v>13.14</v>
+      </c>
+      <c r="P21">
+        <v>500</v>
+      </c>
+      <c r="Q21">
+        <v>24.5</v>
+      </c>
+      <c r="R21">
+        <v>475.5</v>
+      </c>
+      <c r="S21" t="s">
+        <v>122</v>
+      </c>
+      <c r="T21" t="s">
+        <v>123</v>
+      </c>
+      <c r="U21" t="s">
+        <v>124</v>
+      </c>
+      <c r="V21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22">
+        <v>918891888369</v>
+      </c>
+      <c r="C22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="1">
+        <v>45331</v>
+      </c>
+      <c r="F22">
+        <v>457782</v>
+      </c>
+      <c r="G22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" t="s">
+        <v>121</v>
+      </c>
+      <c r="I22" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22" t="s">
+        <v>29</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>513.14</v>
+      </c>
+      <c r="O22">
+        <v>13.14</v>
+      </c>
+      <c r="P22">
+        <v>500</v>
+      </c>
+      <c r="Q22">
+        <v>24.5</v>
+      </c>
+      <c r="R22">
+        <v>475.5</v>
+      </c>
+      <c r="S22" t="s">
+        <v>127</v>
+      </c>
+      <c r="T22" t="s">
+        <v>128</v>
+      </c>
+      <c r="U22" t="s">
+        <v>129</v>
+      </c>
+      <c r="V22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23">
+        <v>919562186720</v>
+      </c>
+      <c r="C23" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="1">
+        <v>45331</v>
+      </c>
+      <c r="F23">
+        <v>457782</v>
+      </c>
+      <c r="G23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" t="s">
+        <v>121</v>
+      </c>
+      <c r="I23" t="s">
+        <v>28</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>513.14</v>
+      </c>
+      <c r="O23">
+        <v>13.14</v>
+      </c>
+      <c r="P23">
+        <v>500</v>
+      </c>
+      <c r="Q23">
+        <v>24.5</v>
+      </c>
+      <c r="R23">
+        <v>475.5</v>
+      </c>
+      <c r="S23" t="s">
+        <v>132</v>
+      </c>
+      <c r="T23" t="s">
+        <v>133</v>
+      </c>
+      <c r="U23" t="s">
+        <v>134</v>
+      </c>
+      <c r="V23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24">
+        <v>919447897359</v>
+      </c>
+      <c r="D24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="1">
+        <v>45331</v>
+      </c>
+      <c r="F24">
+        <v>457782</v>
+      </c>
+      <c r="G24" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" t="s">
+        <v>121</v>
+      </c>
+      <c r="I24" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24" t="s">
+        <v>29</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>513.14</v>
+      </c>
+      <c r="O24">
+        <v>13.14</v>
+      </c>
+      <c r="P24">
+        <v>500</v>
+      </c>
+      <c r="Q24">
+        <v>24.5</v>
+      </c>
+      <c r="R24">
+        <v>475.5</v>
+      </c>
+      <c r="S24" t="s">
+        <v>136</v>
+      </c>
+      <c r="T24" t="s">
+        <v>137</v>
+      </c>
+      <c r="U24" t="s">
+        <v>138</v>
+      </c>
+      <c r="V24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25" t="s">
+        <v>139</v>
+      </c>
+      <c r="B25">
+        <v>919495163201</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="1">
+        <v>45332</v>
+      </c>
+      <c r="F25">
+        <v>457782</v>
+      </c>
+      <c r="G25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" t="s">
+        <v>140</v>
+      </c>
+      <c r="I25" t="s">
+        <v>28</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25" t="s">
+        <v>29</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>513.14</v>
+      </c>
+      <c r="O25">
+        <v>13.14</v>
+      </c>
+      <c r="P25">
+        <v>500</v>
+      </c>
+      <c r="Q25">
+        <v>24.5</v>
+      </c>
+      <c r="R25">
+        <v>475.5</v>
+      </c>
+      <c r="S25" t="s">
+        <v>141</v>
+      </c>
+      <c r="T25" t="s">
+        <v>142</v>
+      </c>
+      <c r="U25" t="s">
+        <v>143</v>
+      </c>
+      <c r="V25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26">
+        <v>919562631500</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="1">
+        <v>45332</v>
+      </c>
+      <c r="F26">
+        <v>457782</v>
+      </c>
+      <c r="G26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" t="s">
+        <v>140</v>
+      </c>
+      <c r="I26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26" t="s">
+        <v>29</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>513.14</v>
+      </c>
+      <c r="O26">
+        <v>13.14</v>
+      </c>
+      <c r="P26">
+        <v>500</v>
+      </c>
+      <c r="Q26">
+        <v>24.5</v>
+      </c>
+      <c r="R26">
+        <v>475.5</v>
+      </c>
+      <c r="S26" t="s">
+        <v>145</v>
+      </c>
+      <c r="T26" t="s">
+        <v>146</v>
+      </c>
+      <c r="U26" t="s">
+        <v>147</v>
+      </c>
+      <c r="V26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27" t="s">
+        <v>148</v>
+      </c>
+      <c r="B27">
+        <v>919497757930</v>
+      </c>
+      <c r="D27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="1">
+        <v>45332</v>
+      </c>
+      <c r="F27">
+        <v>457782</v>
+      </c>
+      <c r="G27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" t="s">
+        <v>140</v>
+      </c>
+      <c r="I27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27" t="s">
+        <v>29</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>513.14</v>
+      </c>
+      <c r="O27">
+        <v>13.14</v>
+      </c>
+      <c r="P27">
+        <v>500</v>
+      </c>
+      <c r="Q27">
+        <v>24.5</v>
+      </c>
+      <c r="R27">
+        <v>475.5</v>
+      </c>
+      <c r="S27" t="s">
+        <v>149</v>
+      </c>
+      <c r="T27" t="s">
+        <v>150</v>
+      </c>
+      <c r="U27" t="s">
+        <v>151</v>
+      </c>
+      <c r="V27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28" t="s">
+        <v>152</v>
+      </c>
+      <c r="B28">
+        <v>918891633120</v>
+      </c>
+      <c r="D28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="1">
+        <v>45332</v>
+      </c>
+      <c r="F28">
+        <v>457782</v>
+      </c>
+      <c r="G28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" t="s">
+        <v>140</v>
+      </c>
+      <c r="I28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28" t="s">
+        <v>29</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>513.14</v>
+      </c>
+      <c r="O28">
+        <v>13.14</v>
+      </c>
+      <c r="P28">
+        <v>500</v>
+      </c>
+      <c r="Q28">
+        <v>24.5</v>
+      </c>
+      <c r="R28">
+        <v>475.5</v>
+      </c>
+      <c r="S28" t="s">
+        <v>153</v>
+      </c>
+      <c r="T28" t="s">
+        <v>154</v>
+      </c>
+      <c r="U28" t="s">
+        <v>155</v>
+      </c>
+      <c r="V28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29" t="s">
+        <v>156</v>
+      </c>
+      <c r="B29">
+        <v>918547888418</v>
+      </c>
+      <c r="D29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="1">
+        <v>45332</v>
+      </c>
+      <c r="F29">
+        <v>457782</v>
+      </c>
+      <c r="G29" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" t="s">
+        <v>140</v>
+      </c>
+      <c r="I29" t="s">
+        <v>28</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29" t="s">
+        <v>29</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>513.14</v>
+      </c>
+      <c r="O29">
+        <v>13.14</v>
+      </c>
+      <c r="P29">
+        <v>500</v>
+      </c>
+      <c r="Q29">
+        <v>24.5</v>
+      </c>
+      <c r="R29">
+        <v>475.5</v>
+      </c>
+      <c r="S29" t="s">
+        <v>157</v>
+      </c>
+      <c r="T29" t="s">
+        <v>158</v>
+      </c>
+      <c r="U29" t="s">
+        <v>159</v>
+      </c>
+      <c r="V29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30" t="s">
+        <v>160</v>
+      </c>
+      <c r="B30">
+        <v>919446426143</v>
+      </c>
+      <c r="C30" t="s">
+        <v>161</v>
+      </c>
+      <c r="D30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="1">
+        <v>45332</v>
+      </c>
+      <c r="F30">
+        <v>457782</v>
+      </c>
+      <c r="G30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" t="s">
+        <v>140</v>
+      </c>
+      <c r="I30" t="s">
+        <v>28</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30" t="s">
+        <v>29</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>513.14</v>
+      </c>
+      <c r="O30">
+        <v>13.14</v>
+      </c>
+      <c r="P30">
+        <v>500</v>
+      </c>
+      <c r="Q30">
+        <v>24.5</v>
+      </c>
+      <c r="R30">
+        <v>475.5</v>
+      </c>
+      <c r="S30" t="s">
+        <v>162</v>
+      </c>
+      <c r="T30" t="s">
+        <v>163</v>
+      </c>
+      <c r="U30" t="s">
+        <v>164</v>
+      </c>
+      <c r="V30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31" t="s">
+        <v>165</v>
+      </c>
+      <c r="B31">
+        <v>971505096530</v>
+      </c>
+      <c r="C31" t="s">
+        <v>166</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="1">
+        <v>45332</v>
+      </c>
+      <c r="F31">
+        <v>457782</v>
+      </c>
+      <c r="G31" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" t="s">
+        <v>140</v>
+      </c>
+      <c r="I31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31" t="s">
+        <v>29</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>513.14</v>
+      </c>
+      <c r="O31">
+        <v>13.14</v>
+      </c>
+      <c r="P31">
+        <v>500</v>
+      </c>
+      <c r="Q31">
+        <v>24.5</v>
+      </c>
+      <c r="R31">
+        <v>475.5</v>
+      </c>
+      <c r="S31" t="s">
+        <v>167</v>
+      </c>
+      <c r="T31" t="s">
+        <v>168</v>
+      </c>
+      <c r="U31" t="s">
+        <v>169</v>
+      </c>
+      <c r="V31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32" t="s">
+        <v>170</v>
+      </c>
+      <c r="B32">
+        <v>918289894151</v>
+      </c>
+      <c r="D32" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="1">
+        <v>45332</v>
+      </c>
+      <c r="F32">
+        <v>457782</v>
+      </c>
+      <c r="G32" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" t="s">
+        <v>140</v>
+      </c>
+      <c r="I32" t="s">
+        <v>28</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32" t="s">
+        <v>29</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>513.14</v>
+      </c>
+      <c r="O32">
+        <v>13.14</v>
+      </c>
+      <c r="P32">
+        <v>500</v>
+      </c>
+      <c r="Q32">
+        <v>24.5</v>
+      </c>
+      <c r="R32">
+        <v>475.5</v>
+      </c>
+      <c r="S32" t="s">
+        <v>171</v>
+      </c>
+      <c r="T32" t="s">
+        <v>172</v>
+      </c>
+      <c r="U32" t="s">
+        <v>173</v>
+      </c>
+      <c r="V32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
+      <c r="A33" t="s">
+        <v>174</v>
+      </c>
+      <c r="B33">
+        <v>919048790207</v>
+      </c>
+      <c r="D33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" s="1">
+        <v>45332</v>
+      </c>
+      <c r="F33">
+        <v>457782</v>
+      </c>
+      <c r="G33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" t="s">
+        <v>140</v>
+      </c>
+      <c r="I33" t="s">
+        <v>28</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33" t="s">
+        <v>29</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>513.14</v>
+      </c>
+      <c r="O33">
+        <v>13.14</v>
+      </c>
+      <c r="P33">
+        <v>500</v>
+      </c>
+      <c r="Q33">
+        <v>24.5</v>
+      </c>
+      <c r="R33">
+        <v>475.5</v>
+      </c>
+      <c r="S33" t="s">
+        <v>175</v>
+      </c>
+      <c r="T33" t="s">
+        <v>176</v>
+      </c>
+      <c r="U33" t="s">
+        <v>177</v>
+      </c>
+      <c r="V33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="A34" t="s">
+        <v>178</v>
+      </c>
+      <c r="B34">
+        <v>918848795005</v>
+      </c>
+      <c r="C34" t="s">
+        <v>179</v>
+      </c>
+      <c r="D34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="1">
+        <v>45332</v>
+      </c>
+      <c r="F34">
+        <v>457782</v>
+      </c>
+      <c r="G34" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34" t="s">
+        <v>140</v>
+      </c>
+      <c r="I34" t="s">
+        <v>28</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34" t="s">
+        <v>29</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>513.14</v>
+      </c>
+      <c r="O34">
+        <v>13.14</v>
+      </c>
+      <c r="P34">
+        <v>500</v>
+      </c>
+      <c r="Q34">
+        <v>24.5</v>
+      </c>
+      <c r="R34">
+        <v>475.5</v>
+      </c>
+      <c r="S34" t="s">
+        <v>180</v>
+      </c>
+      <c r="T34" t="s">
+        <v>181</v>
+      </c>
+      <c r="U34" t="s">
+        <v>182</v>
+      </c>
+      <c r="V34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
+      <c r="A35" t="s">
+        <v>183</v>
+      </c>
+      <c r="B35">
+        <v>919961423156</v>
+      </c>
+      <c r="C35" t="s">
+        <v>184</v>
+      </c>
+      <c r="D35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="1">
+        <v>45332</v>
+      </c>
+      <c r="F35">
+        <v>457782</v>
+      </c>
+      <c r="G35" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" t="s">
+        <v>140</v>
+      </c>
+      <c r="I35" t="s">
+        <v>28</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35" t="s">
+        <v>29</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>513.14</v>
+      </c>
+      <c r="O35">
+        <v>13.14</v>
+      </c>
+      <c r="P35">
+        <v>500</v>
+      </c>
+      <c r="Q35">
+        <v>24.5</v>
+      </c>
+      <c r="R35">
+        <v>475.5</v>
+      </c>
+      <c r="S35" t="s">
+        <v>185</v>
+      </c>
+      <c r="T35" t="s">
+        <v>186</v>
+      </c>
+      <c r="U35" t="s">
+        <v>187</v>
+      </c>
+      <c r="V35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
+      <c r="A36" t="s">
+        <v>188</v>
+      </c>
+      <c r="B36">
+        <v>919539534201</v>
+      </c>
+      <c r="D36" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="1">
+        <v>45332</v>
+      </c>
+      <c r="F36">
+        <v>457782</v>
+      </c>
+      <c r="G36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H36" t="s">
+        <v>140</v>
+      </c>
+      <c r="I36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36" t="s">
+        <v>29</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>513.14</v>
+      </c>
+      <c r="O36">
+        <v>13.14</v>
+      </c>
+      <c r="P36">
+        <v>500</v>
+      </c>
+      <c r="Q36">
+        <v>24.5</v>
+      </c>
+      <c r="R36">
+        <v>475.5</v>
+      </c>
+      <c r="S36" t="s">
+        <v>189</v>
+      </c>
+      <c r="T36" t="s">
+        <v>190</v>
+      </c>
+      <c r="U36" t="s">
+        <v>191</v>
+      </c>
+      <c r="V36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
+      <c r="A37" t="s">
+        <v>192</v>
+      </c>
+      <c r="B37">
+        <v>918921484704</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="1">
+        <v>45332</v>
+      </c>
+      <c r="F37">
+        <v>457782</v>
+      </c>
+      <c r="G37" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" t="s">
+        <v>140</v>
+      </c>
+      <c r="I37" t="s">
+        <v>28</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37" t="s">
+        <v>29</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>513.14</v>
+      </c>
+      <c r="O37">
+        <v>13.14</v>
+      </c>
+      <c r="P37">
+        <v>500</v>
+      </c>
+      <c r="Q37">
+        <v>24.5</v>
+      </c>
+      <c r="R37">
+        <v>475.5</v>
+      </c>
+      <c r="S37" t="s">
+        <v>193</v>
+      </c>
+      <c r="T37" t="s">
+        <v>194</v>
+      </c>
+      <c r="U37" t="s">
+        <v>195</v>
+      </c>
+      <c r="V37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
+      <c r="A38" t="s">
+        <v>196</v>
+      </c>
+      <c r="B38">
+        <v>919846785100</v>
+      </c>
+      <c r="D38" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="1">
+        <v>45333</v>
+      </c>
+      <c r="F38">
+        <v>457782</v>
+      </c>
+      <c r="G38" t="s">
+        <v>26</v>
+      </c>
+      <c r="H38" t="s">
+        <v>197</v>
+      </c>
+      <c r="I38" t="s">
+        <v>28</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38" t="s">
+        <v>29</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>513.14</v>
+      </c>
+      <c r="O38">
+        <v>13.14</v>
+      </c>
+      <c r="P38">
+        <v>500</v>
+      </c>
+      <c r="Q38">
+        <v>24.5</v>
+      </c>
+      <c r="R38">
+        <v>475.5</v>
+      </c>
+      <c r="S38" t="s">
+        <v>198</v>
+      </c>
+      <c r="T38" t="s">
+        <v>199</v>
+      </c>
+      <c r="U38" t="s">
+        <v>200</v>
+      </c>
+      <c r="V38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
+      <c r="A39" t="s">
+        <v>201</v>
+      </c>
+      <c r="B39">
+        <v>919496433160</v>
+      </c>
+      <c r="D39" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="1">
+        <v>45333</v>
+      </c>
+      <c r="F39">
+        <v>457782</v>
+      </c>
+      <c r="G39" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39" t="s">
+        <v>197</v>
+      </c>
+      <c r="I39" t="s">
+        <v>28</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39" t="s">
+        <v>29</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>513.14</v>
+      </c>
+      <c r="O39">
+        <v>13.14</v>
+      </c>
+      <c r="P39">
+        <v>500</v>
+      </c>
+      <c r="Q39">
+        <v>24.5</v>
+      </c>
+      <c r="R39">
+        <v>475.5</v>
+      </c>
+      <c r="S39" t="s">
+        <v>202</v>
+      </c>
+      <c r="T39" t="s">
+        <v>203</v>
+      </c>
+      <c r="U39" t="s">
+        <v>204</v>
+      </c>
+      <c r="V39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
+      <c r="A40" t="s">
+        <v>205</v>
+      </c>
+      <c r="B40">
+        <v>919061013928</v>
+      </c>
+      <c r="C40" t="s">
+        <v>206</v>
+      </c>
+      <c r="D40" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" s="1">
+        <v>45333</v>
+      </c>
+      <c r="F40">
+        <v>457782</v>
+      </c>
+      <c r="G40" t="s">
+        <v>26</v>
+      </c>
+      <c r="H40" t="s">
+        <v>197</v>
+      </c>
+      <c r="I40" t="s">
+        <v>28</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40" t="s">
+        <v>29</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>513.14</v>
+      </c>
+      <c r="O40">
+        <v>13.14</v>
+      </c>
+      <c r="P40">
+        <v>500</v>
+      </c>
+      <c r="Q40">
+        <v>24.5</v>
+      </c>
+      <c r="R40">
+        <v>475.5</v>
+      </c>
+      <c r="S40" t="s">
+        <v>207</v>
+      </c>
+      <c r="T40" t="s">
+        <v>208</v>
+      </c>
+      <c r="U40" t="s">
+        <v>209</v>
+      </c>
+      <c r="V40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
+      <c r="A41" t="s">
+        <v>210</v>
+      </c>
+      <c r="B41">
+        <v>919496273231</v>
+      </c>
+      <c r="D41" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" s="1">
+        <v>45333</v>
+      </c>
+      <c r="F41">
+        <v>457782</v>
+      </c>
+      <c r="G41" t="s">
+        <v>26</v>
+      </c>
+      <c r="H41" t="s">
+        <v>197</v>
+      </c>
+      <c r="I41" t="s">
+        <v>28</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41" t="s">
+        <v>29</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>513.14</v>
+      </c>
+      <c r="O41">
+        <v>13.14</v>
+      </c>
+      <c r="P41">
+        <v>500</v>
+      </c>
+      <c r="Q41">
+        <v>24.5</v>
+      </c>
+      <c r="R41">
+        <v>475.5</v>
+      </c>
+      <c r="S41" t="s">
+        <v>211</v>
+      </c>
+      <c r="T41" t="s">
+        <v>212</v>
+      </c>
+      <c r="U41" t="s">
+        <v>213</v>
+      </c>
+      <c r="V41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22">
+      <c r="A42" t="s">
+        <v>214</v>
+      </c>
+      <c r="B42">
+        <v>919544371647</v>
+      </c>
+      <c r="C42" t="s">
+        <v>215</v>
+      </c>
+      <c r="D42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" s="1">
+        <v>45333</v>
+      </c>
+      <c r="F42">
+        <v>457782</v>
+      </c>
+      <c r="G42" t="s">
+        <v>26</v>
+      </c>
+      <c r="H42" t="s">
+        <v>197</v>
+      </c>
+      <c r="I42" t="s">
+        <v>28</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42" t="s">
+        <v>29</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>513.14</v>
+      </c>
+      <c r="O42">
+        <v>13.14</v>
+      </c>
+      <c r="P42">
+        <v>500</v>
+      </c>
+      <c r="Q42">
+        <v>24.5</v>
+      </c>
+      <c r="R42">
+        <v>475.5</v>
+      </c>
+      <c r="S42" t="s">
+        <v>216</v>
+      </c>
+      <c r="T42" t="s">
+        <v>217</v>
+      </c>
+      <c r="U42" t="s">
+        <v>218</v>
+      </c>
+      <c r="V42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
+      <c r="A43" t="s">
+        <v>219</v>
+      </c>
+      <c r="B43">
+        <v>919447102024</v>
+      </c>
+      <c r="D43" t="s">
+        <v>72</v>
+      </c>
+      <c r="E43" s="1">
+        <v>45333</v>
+      </c>
+      <c r="F43">
+        <v>457782</v>
+      </c>
+      <c r="G43" t="s">
+        <v>26</v>
+      </c>
+      <c r="H43" t="s">
+        <v>197</v>
+      </c>
+      <c r="I43" t="s">
+        <v>28</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43" t="s">
+        <v>29</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>513.14</v>
+      </c>
+      <c r="O43">
+        <v>13.14</v>
+      </c>
+      <c r="P43">
+        <v>500</v>
+      </c>
+      <c r="Q43">
+        <v>24.5</v>
+      </c>
+      <c r="R43">
+        <v>475.5</v>
+      </c>
+      <c r="S43" t="s">
+        <v>220</v>
+      </c>
+      <c r="T43" t="s">
+        <v>221</v>
+      </c>
+      <c r="U43" t="s">
+        <v>222</v>
+      </c>
+      <c r="V43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
+      <c r="A44" t="s">
+        <v>223</v>
+      </c>
+      <c r="B44">
+        <v>919544885606</v>
+      </c>
+      <c r="C44" t="s">
+        <v>224</v>
+      </c>
+      <c r="D44" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="1">
+        <v>45334</v>
+      </c>
+      <c r="F44">
+        <v>457782</v>
+      </c>
+      <c r="G44" t="s">
+        <v>26</v>
+      </c>
+      <c r="H44" t="s">
+        <v>225</v>
+      </c>
+      <c r="I44" t="s">
+        <v>28</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44" t="s">
+        <v>226</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>600</v>
+      </c>
+      <c r="O44">
+        <v>15.36</v>
+      </c>
+      <c r="P44">
+        <v>600</v>
+      </c>
+      <c r="Q44">
+        <v>28.65</v>
+      </c>
+      <c r="R44">
+        <v>555.99</v>
+      </c>
+      <c r="S44" t="s">
+        <v>227</v>
+      </c>
+      <c r="T44" t="s">
+        <v>228</v>
+      </c>
+      <c r="U44" t="s">
+        <v>229</v>
+      </c>
+      <c r="V44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22">
+      <c r="A45" t="s">
+        <v>230</v>
+      </c>
+      <c r="B45">
+        <v>918891187433</v>
+      </c>
+      <c r="D45" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" s="1">
+        <v>45334</v>
+      </c>
+      <c r="F45">
+        <v>457782</v>
+      </c>
+      <c r="G45" t="s">
+        <v>26</v>
+      </c>
+      <c r="H45" t="s">
+        <v>225</v>
+      </c>
+      <c r="I45" t="s">
+        <v>28</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45" t="s">
+        <v>226</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>600</v>
+      </c>
+      <c r="O45">
+        <v>15.36</v>
+      </c>
+      <c r="P45">
+        <v>600</v>
+      </c>
+      <c r="Q45">
+        <v>28.65</v>
+      </c>
+      <c r="R45">
+        <v>555.99</v>
+      </c>
+      <c r="S45" t="s">
+        <v>231</v>
+      </c>
+      <c r="T45" t="s">
+        <v>232</v>
+      </c>
+      <c r="U45" t="s">
+        <v>233</v>
+      </c>
+      <c r="V45" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22">
+      <c r="A46" t="s">
+        <v>234</v>
+      </c>
+      <c r="B46">
+        <v>919074669296</v>
+      </c>
+      <c r="C46" t="s">
+        <v>235</v>
+      </c>
+      <c r="D46" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" s="1">
+        <v>45334</v>
+      </c>
+      <c r="F46">
+        <v>457782</v>
+      </c>
+      <c r="G46" t="s">
+        <v>26</v>
+      </c>
+      <c r="H46" t="s">
+        <v>225</v>
+      </c>
+      <c r="I46" t="s">
+        <v>28</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46" t="s">
+        <v>226</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>600</v>
+      </c>
+      <c r="O46">
+        <v>15.36</v>
+      </c>
+      <c r="P46">
+        <v>600</v>
+      </c>
+      <c r="Q46">
+        <v>28.65</v>
+      </c>
+      <c r="R46">
+        <v>555.99</v>
+      </c>
+      <c r="S46" t="s">
+        <v>236</v>
+      </c>
+      <c r="T46" t="s">
+        <v>237</v>
+      </c>
+      <c r="U46" t="s">
+        <v>238</v>
+      </c>
+      <c r="V46" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22">
+      <c r="A47" t="s">
+        <v>239</v>
+      </c>
+      <c r="B47">
+        <v>916282056275</v>
+      </c>
+      <c r="C47" t="s">
+        <v>240</v>
+      </c>
+      <c r="D47" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" s="1">
+        <v>45334</v>
+      </c>
+      <c r="F47">
+        <v>457782</v>
+      </c>
+      <c r="G47" t="s">
+        <v>26</v>
+      </c>
+      <c r="H47" t="s">
+        <v>225</v>
+      </c>
+      <c r="I47" t="s">
+        <v>28</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47" t="s">
+        <v>226</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>600</v>
+      </c>
+      <c r="O47">
+        <v>15.36</v>
+      </c>
+      <c r="P47">
+        <v>600</v>
+      </c>
+      <c r="Q47">
+        <v>28.65</v>
+      </c>
+      <c r="R47">
+        <v>555.99</v>
+      </c>
+      <c r="S47" t="s">
+        <v>241</v>
+      </c>
+      <c r="T47" t="s">
+        <v>242</v>
+      </c>
+      <c r="U47" t="s">
+        <v>243</v>
+      </c>
+      <c r="V47" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22">
+      <c r="A48" t="s">
+        <v>244</v>
+      </c>
+      <c r="B48">
+        <v>919349735401</v>
+      </c>
+      <c r="D48" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" s="1">
+        <v>45334</v>
+      </c>
+      <c r="F48">
+        <v>457782</v>
+      </c>
+      <c r="G48" t="s">
+        <v>26</v>
+      </c>
+      <c r="H48" t="s">
+        <v>225</v>
+      </c>
+      <c r="I48" t="s">
+        <v>28</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48" t="s">
+        <v>226</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>600</v>
+      </c>
+      <c r="O48">
+        <v>15.36</v>
+      </c>
+      <c r="P48">
+        <v>600</v>
+      </c>
+      <c r="Q48">
+        <v>28.65</v>
+      </c>
+      <c r="R48">
+        <v>555.99</v>
+      </c>
+      <c r="S48" t="s">
+        <v>245</v>
+      </c>
+      <c r="T48" t="s">
+        <v>246</v>
+      </c>
+      <c r="U48" t="s">
+        <v>247</v>
+      </c>
+      <c r="V48" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22">
+      <c r="A49" t="s">
+        <v>248</v>
+      </c>
+      <c r="B49">
+        <v>919995233351</v>
+      </c>
+      <c r="D49" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" s="1">
+        <v>45335</v>
+      </c>
+      <c r="F49">
+        <v>457782</v>
+      </c>
+      <c r="G49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H49" t="s">
+        <v>249</v>
+      </c>
+      <c r="I49" t="s">
+        <v>28</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49" t="s">
+        <v>226</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>600</v>
+      </c>
+      <c r="O49">
+        <v>15.36</v>
+      </c>
+      <c r="P49">
+        <v>600</v>
+      </c>
+      <c r="Q49">
+        <v>28.65</v>
+      </c>
+      <c r="R49">
+        <v>555.99</v>
+      </c>
+      <c r="S49" t="s">
+        <v>250</v>
+      </c>
+      <c r="T49" t="s">
+        <v>251</v>
+      </c>
+      <c r="U49" t="s">
+        <v>252</v>
+      </c>
+      <c r="V49" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22">
+      <c r="A50" t="s">
+        <v>253</v>
+      </c>
+      <c r="B50">
+        <v>918281839301</v>
+      </c>
+      <c r="D50" t="s">
+        <v>25</v>
+      </c>
+      <c r="E50" s="1">
+        <v>45335</v>
+      </c>
+      <c r="F50">
+        <v>457782</v>
+      </c>
+      <c r="G50" t="s">
+        <v>26</v>
+      </c>
+      <c r="H50" t="s">
+        <v>249</v>
+      </c>
+      <c r="I50" t="s">
+        <v>28</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50" t="s">
+        <v>226</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>600</v>
+      </c>
+      <c r="O50">
+        <v>15.36</v>
+      </c>
+      <c r="P50">
+        <v>600</v>
+      </c>
+      <c r="Q50">
+        <v>28.65</v>
+      </c>
+      <c r="R50">
+        <v>555.99</v>
+      </c>
+      <c r="S50" t="s">
+        <v>254</v>
+      </c>
+      <c r="T50" t="s">
+        <v>255</v>
+      </c>
+      <c r="U50" t="s">
+        <v>256</v>
+      </c>
+      <c r="V50" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22">
+      <c r="A51" t="s">
+        <v>257</v>
+      </c>
+      <c r="B51">
+        <v>918138001191</v>
+      </c>
+      <c r="D51" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" s="1">
+        <v>45335</v>
+      </c>
+      <c r="F51">
+        <v>457782</v>
+      </c>
+      <c r="G51" t="s">
+        <v>26</v>
+      </c>
+      <c r="H51" t="s">
+        <v>249</v>
+      </c>
+      <c r="I51" t="s">
+        <v>28</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51" t="s">
+        <v>226</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>600</v>
+      </c>
+      <c r="O51">
+        <v>15.36</v>
+      </c>
+      <c r="P51">
+        <v>600</v>
+      </c>
+      <c r="Q51">
+        <v>28.65</v>
+      </c>
+      <c r="R51">
+        <v>555.99</v>
+      </c>
+      <c r="S51" t="s">
+        <v>258</v>
+      </c>
+      <c r="T51" t="s">
+        <v>259</v>
+      </c>
+      <c r="U51" t="s">
+        <v>260</v>
+      </c>
+      <c r="V51" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22">
+      <c r="A52" t="s">
+        <v>261</v>
+      </c>
+      <c r="B52">
+        <v>919946837190</v>
+      </c>
+      <c r="D52" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52" s="1">
+        <v>45336</v>
+      </c>
+      <c r="F52">
+        <v>457782</v>
+      </c>
+      <c r="G52" t="s">
+        <v>26</v>
+      </c>
+      <c r="H52" t="s">
+        <v>262</v>
+      </c>
+      <c r="I52" t="s">
+        <v>28</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52" t="s">
+        <v>226</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>600</v>
+      </c>
+      <c r="O52">
+        <v>15.36</v>
+      </c>
+      <c r="P52">
+        <v>600</v>
+      </c>
+      <c r="Q52">
+        <v>28.65</v>
+      </c>
+      <c r="R52">
+        <v>555.99</v>
+      </c>
+      <c r="S52" t="s">
+        <v>263</v>
+      </c>
+      <c r="T52" t="s">
+        <v>264</v>
+      </c>
+      <c r="U52" t="s">
+        <v>265</v>
+      </c>
+      <c r="V52" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22">
+      <c r="A53" t="s">
+        <v>266</v>
+      </c>
+      <c r="B53">
+        <v>917306220743</v>
+      </c>
+      <c r="D53" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" s="1">
+        <v>45336</v>
+      </c>
+      <c r="F53">
+        <v>457782</v>
+      </c>
+      <c r="G53" t="s">
+        <v>26</v>
+      </c>
+      <c r="H53" t="s">
+        <v>262</v>
+      </c>
+      <c r="I53" t="s">
+        <v>28</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53" t="s">
+        <v>226</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>600</v>
+      </c>
+      <c r="O53">
+        <v>15.36</v>
+      </c>
+      <c r="P53">
+        <v>600</v>
+      </c>
+      <c r="Q53">
+        <v>28.65</v>
+      </c>
+      <c r="R53">
+        <v>555.99</v>
+      </c>
+      <c r="S53" t="s">
+        <v>267</v>
+      </c>
+      <c r="T53" t="s">
+        <v>268</v>
+      </c>
+      <c r="U53" t="s">
+        <v>269</v>
+      </c>
+      <c r="V53" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22">
+      <c r="A54" t="s">
+        <v>270</v>
+      </c>
+      <c r="B54">
+        <v>917306501241</v>
+      </c>
+      <c r="C54" t="s">
+        <v>271</v>
+      </c>
+      <c r="D54" t="s">
+        <v>25</v>
+      </c>
+      <c r="E54" s="1">
+        <v>45336</v>
+      </c>
+      <c r="F54">
+        <v>457782</v>
+      </c>
+      <c r="G54" t="s">
+        <v>26</v>
+      </c>
+      <c r="H54" t="s">
+        <v>262</v>
+      </c>
+      <c r="I54" t="s">
+        <v>28</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54" t="s">
+        <v>226</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>600</v>
+      </c>
+      <c r="O54">
+        <v>15.36</v>
+      </c>
+      <c r="P54">
+        <v>600</v>
+      </c>
+      <c r="Q54">
+        <v>28.65</v>
+      </c>
+      <c r="R54">
+        <v>555.99</v>
+      </c>
+      <c r="S54" t="s">
+        <v>272</v>
+      </c>
+      <c r="T54" t="s">
+        <v>273</v>
+      </c>
+      <c r="U54" t="s">
+        <v>274</v>
+      </c>
+      <c r="V54" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22">
+      <c r="A55" t="s">
+        <v>275</v>
+      </c>
+      <c r="B55">
+        <v>919037568446</v>
+      </c>
+      <c r="D55" t="s">
+        <v>25</v>
+      </c>
+      <c r="E55" s="1">
+        <v>45337</v>
+      </c>
+      <c r="F55">
+        <v>457782</v>
+      </c>
+      <c r="G55" t="s">
+        <v>26</v>
+      </c>
+      <c r="H55" t="s">
+        <v>276</v>
+      </c>
+      <c r="I55" t="s">
+        <v>28</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55" t="s">
+        <v>226</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>600</v>
+      </c>
+      <c r="O55">
+        <v>15.36</v>
+      </c>
+      <c r="P55">
+        <v>600</v>
+      </c>
+      <c r="Q55">
+        <v>28.65</v>
+      </c>
+      <c r="R55">
+        <v>555.99</v>
+      </c>
+      <c r="S55" t="s">
+        <v>277</v>
+      </c>
+      <c r="T55" t="s">
+        <v>278</v>
+      </c>
+      <c r="U55" t="s">
+        <v>279</v>
+      </c>
+      <c r="V55" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22">
+      <c r="A56" t="s">
+        <v>280</v>
+      </c>
+      <c r="B56">
+        <v>919387061119</v>
+      </c>
+      <c r="D56" t="s">
+        <v>25</v>
+      </c>
+      <c r="E56" s="1">
+        <v>45337</v>
+      </c>
+      <c r="F56">
+        <v>457782</v>
+      </c>
+      <c r="G56" t="s">
+        <v>26</v>
+      </c>
+      <c r="H56" t="s">
+        <v>276</v>
+      </c>
+      <c r="I56" t="s">
+        <v>28</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56" t="s">
+        <v>226</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>600</v>
+      </c>
+      <c r="O56">
+        <v>15.36</v>
+      </c>
+      <c r="P56">
+        <v>600</v>
+      </c>
+      <c r="Q56">
+        <v>28.65</v>
+      </c>
+      <c r="R56">
+        <v>555.99</v>
+      </c>
+      <c r="S56" t="s">
+        <v>281</v>
+      </c>
+      <c r="T56" t="s">
+        <v>282</v>
+      </c>
+      <c r="U56" t="s">
+        <v>283</v>
+      </c>
+      <c r="V56" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22">
+      <c r="A57" t="s">
+        <v>284</v>
+      </c>
+      <c r="B57">
+        <v>918123534618</v>
+      </c>
+      <c r="C57" t="s">
+        <v>285</v>
+      </c>
+      <c r="D57" t="s">
+        <v>25</v>
+      </c>
+      <c r="E57" s="1">
+        <v>45338</v>
+      </c>
+      <c r="F57">
+        <v>457782</v>
+      </c>
+      <c r="G57" t="s">
+        <v>26</v>
+      </c>
+      <c r="H57" t="s">
+        <v>286</v>
+      </c>
+      <c r="I57" t="s">
+        <v>28</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57" t="s">
+        <v>226</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>600</v>
+      </c>
+      <c r="O57">
+        <v>15.36</v>
+      </c>
+      <c r="P57">
+        <v>600</v>
+      </c>
+      <c r="Q57">
+        <v>28.65</v>
+      </c>
+      <c r="R57">
+        <v>555.99</v>
+      </c>
+      <c r="S57" t="s">
+        <v>287</v>
+      </c>
+      <c r="T57" t="s">
+        <v>288</v>
+      </c>
+      <c r="U57" t="s">
+        <v>289</v>
+      </c>
+      <c r="V57" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22">
+      <c r="A58" t="s">
+        <v>290</v>
+      </c>
+      <c r="B58">
+        <v>919947205485</v>
+      </c>
+      <c r="C58" t="s">
+        <v>291</v>
+      </c>
+      <c r="D58" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58" s="1">
+        <v>45338</v>
+      </c>
+      <c r="F58">
+        <v>457782</v>
+      </c>
+      <c r="G58" t="s">
+        <v>26</v>
+      </c>
+      <c r="H58" t="s">
+        <v>286</v>
+      </c>
+      <c r="I58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58" t="s">
+        <v>226</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>600</v>
+      </c>
+      <c r="O58">
+        <v>15.36</v>
+      </c>
+      <c r="P58">
+        <v>600</v>
+      </c>
+      <c r="Q58">
+        <v>28.65</v>
+      </c>
+      <c r="R58">
+        <v>555.99</v>
+      </c>
+      <c r="S58" t="s">
+        <v>292</v>
+      </c>
+      <c r="T58" t="s">
+        <v>293</v>
+      </c>
+      <c r="U58" t="s">
+        <v>294</v>
+      </c>
+      <c r="V58" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22">
+      <c r="A59" t="s">
+        <v>295</v>
+      </c>
+      <c r="B59">
+        <v>919447791168</v>
+      </c>
+      <c r="D59" t="s">
+        <v>25</v>
+      </c>
+      <c r="E59" s="1">
+        <v>45339</v>
+      </c>
+      <c r="F59">
+        <v>457782</v>
+      </c>
+      <c r="G59" t="s">
+        <v>26</v>
+      </c>
+      <c r="H59" t="s">
+        <v>296</v>
+      </c>
+      <c r="I59" t="s">
+        <v>28</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59" t="s">
+        <v>226</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>600</v>
+      </c>
+      <c r="O59">
+        <v>15.36</v>
+      </c>
+      <c r="P59">
+        <v>600</v>
+      </c>
+      <c r="Q59">
+        <v>28.65</v>
+      </c>
+      <c r="R59">
+        <v>555.99</v>
+      </c>
+      <c r="S59" t="s">
+        <v>297</v>
+      </c>
+      <c r="T59" t="s">
+        <v>298</v>
+      </c>
+      <c r="U59" t="s">
+        <v>299</v>
+      </c>
+      <c r="V59" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22">
+      <c r="A60" t="s">
+        <v>300</v>
+      </c>
+      <c r="B60">
+        <v>919495181725</v>
+      </c>
+      <c r="D60" t="s">
+        <v>25</v>
+      </c>
+      <c r="E60" s="1">
+        <v>45339</v>
+      </c>
+      <c r="F60">
+        <v>457782</v>
+      </c>
+      <c r="G60" t="s">
+        <v>26</v>
+      </c>
+      <c r="H60" t="s">
+        <v>296</v>
+      </c>
+      <c r="I60" t="s">
+        <v>28</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60" t="s">
+        <v>226</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>600</v>
+      </c>
+      <c r="O60">
+        <v>15.36</v>
+      </c>
+      <c r="P60">
+        <v>600</v>
+      </c>
+      <c r="Q60">
+        <v>28.65</v>
+      </c>
+      <c r="R60">
+        <v>555.99</v>
+      </c>
+      <c r="S60" t="s">
+        <v>301</v>
+      </c>
+      <c r="T60" t="s">
+        <v>302</v>
+      </c>
+      <c r="U60" t="s">
+        <v>303</v>
+      </c>
+      <c r="V60" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22">
+      <c r="A61" t="s">
+        <v>304</v>
+      </c>
+      <c r="B61">
+        <v>919747942961</v>
+      </c>
+      <c r="C61" t="s">
+        <v>305</v>
+      </c>
+      <c r="D61" t="s">
+        <v>25</v>
+      </c>
+      <c r="E61" s="1">
+        <v>45340</v>
+      </c>
+      <c r="F61">
+        <v>457782</v>
+      </c>
+      <c r="G61" t="s">
+        <v>26</v>
+      </c>
+      <c r="H61" t="s">
+        <v>306</v>
+      </c>
+      <c r="I61" t="s">
+        <v>28</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61" t="s">
+        <v>226</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>600</v>
+      </c>
+      <c r="O61">
+        <v>15.36</v>
+      </c>
+      <c r="P61">
+        <v>600</v>
+      </c>
+      <c r="Q61">
+        <v>28.65</v>
+      </c>
+      <c r="R61">
+        <v>555.99</v>
+      </c>
+      <c r="S61" t="s">
+        <v>307</v>
+      </c>
+      <c r="T61" t="s">
+        <v>308</v>
+      </c>
+      <c r="U61" t="s">
+        <v>309</v>
+      </c>
+      <c r="V61" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22">
+      <c r="A62" t="s">
+        <v>310</v>
+      </c>
+      <c r="B62">
+        <v>919496861030</v>
+      </c>
+      <c r="C62" t="s">
+        <v>311</v>
+      </c>
+      <c r="D62" t="s">
+        <v>25</v>
+      </c>
+      <c r="E62" s="1">
+        <v>45340</v>
+      </c>
+      <c r="F62">
+        <v>457782</v>
+      </c>
+      <c r="G62" t="s">
+        <v>26</v>
+      </c>
+      <c r="H62" t="s">
+        <v>306</v>
+      </c>
+      <c r="I62" t="s">
+        <v>28</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62" t="s">
+        <v>226</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>600</v>
+      </c>
+      <c r="O62">
+        <v>15.36</v>
+      </c>
+      <c r="P62">
+        <v>600</v>
+      </c>
+      <c r="Q62">
+        <v>28.65</v>
+      </c>
+      <c r="R62">
+        <v>555.99</v>
+      </c>
+      <c r="S62" t="s">
+        <v>312</v>
+      </c>
+      <c r="T62" t="s">
+        <v>313</v>
+      </c>
+      <c r="U62" t="s">
+        <v>314</v>
+      </c>
+      <c r="V62" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22">
+      <c r="A63" t="s">
+        <v>315</v>
+      </c>
+      <c r="B63">
+        <v>919495908506</v>
+      </c>
+      <c r="C63" t="s">
+        <v>316</v>
+      </c>
+      <c r="D63" t="s">
+        <v>25</v>
+      </c>
+      <c r="E63" s="1">
+        <v>45341</v>
+      </c>
+      <c r="F63">
+        <v>457782</v>
+      </c>
+      <c r="G63" t="s">
+        <v>26</v>
+      </c>
+      <c r="H63" t="s">
+        <v>317</v>
+      </c>
+      <c r="I63" t="s">
+        <v>28</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63" t="s">
+        <v>226</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>600</v>
+      </c>
+      <c r="O63">
+        <v>15.36</v>
+      </c>
+      <c r="P63">
+        <v>600</v>
+      </c>
+      <c r="Q63">
+        <v>28.65</v>
+      </c>
+      <c r="R63">
+        <v>555.99</v>
+      </c>
+      <c r="S63" t="s">
+        <v>318</v>
+      </c>
+      <c r="T63" t="s">
+        <v>319</v>
+      </c>
+      <c r="U63" t="s">
+        <v>320</v>
+      </c>
+      <c r="V63" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22">
+      <c r="A64" t="s">
+        <v>321</v>
+      </c>
+      <c r="B64">
+        <v>919497422917</v>
+      </c>
+      <c r="C64" t="s">
+        <v>322</v>
+      </c>
+      <c r="D64" t="s">
+        <v>25</v>
+      </c>
+      <c r="E64" s="1">
+        <v>45341</v>
+      </c>
+      <c r="F64">
+        <v>457782</v>
+      </c>
+      <c r="G64" t="s">
+        <v>26</v>
+      </c>
+      <c r="H64" t="s">
+        <v>317</v>
+      </c>
+      <c r="I64" t="s">
+        <v>28</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64" t="s">
+        <v>226</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>600</v>
+      </c>
+      <c r="O64">
+        <v>15.36</v>
+      </c>
+      <c r="P64">
+        <v>600</v>
+      </c>
+      <c r="Q64">
+        <v>28.65</v>
+      </c>
+      <c r="R64">
+        <v>555.99</v>
+      </c>
+      <c r="S64" t="s">
+        <v>323</v>
+      </c>
+      <c r="T64" t="s">
+        <v>324</v>
+      </c>
+      <c r="U64" t="s">
+        <v>325</v>
+      </c>
+      <c r="V64" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22">
+      <c r="A65" t="s">
+        <v>326</v>
+      </c>
+      <c r="B65">
+        <v>919446731884</v>
+      </c>
+      <c r="C65" t="s">
+        <v>327</v>
+      </c>
+      <c r="D65" t="s">
+        <v>25</v>
+      </c>
+      <c r="E65" s="1">
+        <v>45341</v>
+      </c>
+      <c r="F65">
+        <v>457782</v>
+      </c>
+      <c r="G65" t="s">
+        <v>26</v>
+      </c>
+      <c r="H65" t="s">
+        <v>317</v>
+      </c>
+      <c r="I65" t="s">
+        <v>28</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65" t="s">
+        <v>226</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>600</v>
+      </c>
+      <c r="O65">
+        <v>15.36</v>
+      </c>
+      <c r="P65">
+        <v>600</v>
+      </c>
+      <c r="Q65">
+        <v>28.65</v>
+      </c>
+      <c r="R65">
+        <v>555.99</v>
+      </c>
+      <c r="S65" t="s">
+        <v>328</v>
+      </c>
+      <c r="T65" t="s">
+        <v>329</v>
+      </c>
+      <c r="U65" t="s">
+        <v>330</v>
+      </c>
+      <c r="V65" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22">
+      <c r="A66" t="s">
+        <v>331</v>
+      </c>
+      <c r="B66">
+        <v>918848916437</v>
+      </c>
+      <c r="C66" t="s">
+        <v>332</v>
+      </c>
+      <c r="D66" t="s">
+        <v>25</v>
+      </c>
+      <c r="E66" s="1">
+        <v>45341</v>
+      </c>
+      <c r="F66">
+        <v>457782</v>
+      </c>
+      <c r="G66" t="s">
+        <v>26</v>
+      </c>
+      <c r="H66" t="s">
+        <v>317</v>
+      </c>
+      <c r="I66" t="s">
+        <v>28</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66" t="s">
+        <v>226</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>600</v>
+      </c>
+      <c r="O66">
+        <v>15.36</v>
+      </c>
+      <c r="P66">
+        <v>600</v>
+      </c>
+      <c r="Q66">
+        <v>28.65</v>
+      </c>
+      <c r="R66">
+        <v>555.99</v>
+      </c>
+      <c r="S66" t="s">
+        <v>333</v>
+      </c>
+      <c r="T66" t="s">
+        <v>334</v>
+      </c>
+      <c r="U66" t="s">
+        <v>335</v>
+      </c>
+      <c r="V66" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22">
+      <c r="A67" t="s">
+        <v>336</v>
+      </c>
+      <c r="B67">
+        <v>919744429977</v>
+      </c>
+      <c r="C67" t="s">
+        <v>337</v>
+      </c>
+      <c r="D67" t="s">
+        <v>25</v>
+      </c>
+      <c r="E67" s="1">
+        <v>45341</v>
+      </c>
+      <c r="F67">
+        <v>457782</v>
+      </c>
+      <c r="G67" t="s">
+        <v>26</v>
+      </c>
+      <c r="H67" t="s">
+        <v>317</v>
+      </c>
+      <c r="I67" t="s">
+        <v>28</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67" t="s">
+        <v>226</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>600</v>
+      </c>
+      <c r="O67">
+        <v>15.36</v>
+      </c>
+      <c r="P67">
+        <v>600</v>
+      </c>
+      <c r="Q67">
+        <v>28.65</v>
+      </c>
+      <c r="R67">
+        <v>555.99</v>
+      </c>
+      <c r="S67" t="s">
+        <v>338</v>
+      </c>
+      <c r="T67" t="s">
+        <v>339</v>
+      </c>
+      <c r="U67" t="s">
+        <v>340</v>
+      </c>
+      <c r="V67" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22">
+      <c r="A68" t="s">
+        <v>341</v>
+      </c>
+      <c r="B68">
+        <v>919847584216</v>
+      </c>
+      <c r="C68" t="s">
+        <v>342</v>
+      </c>
+      <c r="D68" t="s">
+        <v>25</v>
+      </c>
+      <c r="E68" s="1">
+        <v>45341</v>
+      </c>
+      <c r="F68">
+        <v>457782</v>
+      </c>
+      <c r="G68" t="s">
+        <v>26</v>
+      </c>
+      <c r="H68" t="s">
+        <v>317</v>
+      </c>
+      <c r="I68" t="s">
+        <v>28</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68" t="s">
+        <v>226</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>600</v>
+      </c>
+      <c r="O68">
+        <v>15.36</v>
+      </c>
+      <c r="P68">
+        <v>600</v>
+      </c>
+      <c r="Q68">
+        <v>28.65</v>
+      </c>
+      <c r="R68">
+        <v>555.99</v>
+      </c>
+      <c r="S68" t="s">
+        <v>343</v>
+      </c>
+      <c r="T68" t="s">
+        <v>344</v>
+      </c>
+      <c r="U68" t="s">
+        <v>345</v>
+      </c>
+      <c r="V68" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22">
+      <c r="A69" t="s">
+        <v>346</v>
+      </c>
+      <c r="B69">
+        <v>919947178216</v>
+      </c>
+      <c r="C69" t="s">
+        <v>347</v>
+      </c>
+      <c r="D69" t="s">
+        <v>25</v>
+      </c>
+      <c r="E69" s="1">
+        <v>45341</v>
+      </c>
+      <c r="F69">
+        <v>457782</v>
+      </c>
+      <c r="G69" t="s">
+        <v>26</v>
+      </c>
+      <c r="H69" t="s">
+        <v>317</v>
+      </c>
+      <c r="I69" t="s">
+        <v>28</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69" t="s">
+        <v>226</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>600</v>
+      </c>
+      <c r="O69">
+        <v>15.36</v>
+      </c>
+      <c r="P69">
+        <v>600</v>
+      </c>
+      <c r="Q69">
+        <v>28.65</v>
+      </c>
+      <c r="R69">
+        <v>555.99</v>
+      </c>
+      <c r="S69" t="s">
+        <v>348</v>
+      </c>
+      <c r="T69" t="s">
+        <v>349</v>
+      </c>
+      <c r="U69" t="s">
+        <v>350</v>
+      </c>
+      <c r="V69" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22">
+      <c r="A70" t="s">
+        <v>351</v>
+      </c>
+      <c r="B70">
+        <v>918281734164</v>
+      </c>
+      <c r="C70" t="s">
+        <v>352</v>
+      </c>
+      <c r="D70" t="s">
+        <v>25</v>
+      </c>
+      <c r="E70" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F70">
+        <v>457782</v>
+      </c>
+      <c r="G70" t="s">
+        <v>26</v>
+      </c>
+      <c r="H70" t="s">
+        <v>353</v>
+      </c>
+      <c r="I70" t="s">
+        <v>28</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70" t="s">
+        <v>226</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>600</v>
+      </c>
+      <c r="O70">
+        <v>15.36</v>
+      </c>
+      <c r="P70">
+        <v>600</v>
+      </c>
+      <c r="Q70">
+        <v>28.65</v>
+      </c>
+      <c r="R70">
+        <v>555.99</v>
+      </c>
+      <c r="S70" t="s">
+        <v>354</v>
+      </c>
+      <c r="T70" t="s">
+        <v>355</v>
+      </c>
+      <c r="U70" t="s">
+        <v>356</v>
+      </c>
+      <c r="V70" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22">
+      <c r="A71" t="s">
+        <v>357</v>
+      </c>
+      <c r="B71">
+        <v>919074660507</v>
+      </c>
+      <c r="C71" t="s">
+        <v>358</v>
+      </c>
+      <c r="D71" t="s">
+        <v>25</v>
+      </c>
+      <c r="E71" s="1">
+        <v>45344</v>
+      </c>
+      <c r="F71">
+        <v>457782</v>
+      </c>
+      <c r="G71" t="s">
+        <v>26</v>
+      </c>
+      <c r="H71" t="s">
+        <v>359</v>
+      </c>
+      <c r="I71" t="s">
+        <v>28</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71" t="s">
+        <v>226</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>600</v>
+      </c>
+      <c r="O71">
+        <v>15.36</v>
+      </c>
+      <c r="P71">
+        <v>600</v>
+      </c>
+      <c r="Q71">
+        <v>28.65</v>
+      </c>
+      <c r="R71">
+        <v>555.99</v>
+      </c>
+      <c r="S71" t="s">
+        <v>360</v>
+      </c>
+      <c r="T71" t="s">
+        <v>361</v>
+      </c>
+      <c r="U71" t="s">
+        <v>362</v>
+      </c>
+      <c r="V71" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22">
+      <c r="A72" t="s">
+        <v>363</v>
+      </c>
+      <c r="B72">
+        <v>919446788781</v>
+      </c>
+      <c r="C72" t="s">
+        <v>364</v>
+      </c>
+      <c r="D72" t="s">
+        <v>25</v>
+      </c>
+      <c r="E72" s="1">
+        <v>45344</v>
+      </c>
+      <c r="F72">
+        <v>457782</v>
+      </c>
+      <c r="G72" t="s">
+        <v>26</v>
+      </c>
+      <c r="H72" t="s">
+        <v>359</v>
+      </c>
+      <c r="I72" t="s">
+        <v>28</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72" t="s">
+        <v>226</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>600</v>
+      </c>
+      <c r="O72">
+        <v>15.36</v>
+      </c>
+      <c r="P72">
+        <v>600</v>
+      </c>
+      <c r="Q72">
+        <v>28.65</v>
+      </c>
+      <c r="R72">
+        <v>555.99</v>
+      </c>
+      <c r="S72" t="s">
+        <v>365</v>
+      </c>
+      <c r="T72" t="s">
+        <v>366</v>
+      </c>
+      <c r="U72" t="s">
+        <v>367</v>
+      </c>
+      <c r="V72" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22">
+      <c r="A73" t="s">
+        <v>368</v>
+      </c>
+      <c r="B73">
+        <v>919745509068</v>
+      </c>
+      <c r="D73" t="s">
+        <v>72</v>
+      </c>
+      <c r="E73" s="1">
+        <v>45345</v>
+      </c>
+      <c r="F73">
+        <v>457782</v>
+      </c>
+      <c r="G73" t="s">
+        <v>26</v>
+      </c>
+      <c r="H73" t="s">
+        <v>369</v>
+      </c>
+      <c r="I73" t="s">
+        <v>28</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73" t="s">
+        <v>226</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>600</v>
+      </c>
+      <c r="O73">
+        <v>15.36</v>
+      </c>
+      <c r="P73">
+        <v>600</v>
+      </c>
+      <c r="Q73">
+        <v>28.65</v>
+      </c>
+      <c r="R73">
+        <v>555.99</v>
+      </c>
+      <c r="S73" t="s">
+        <v>370</v>
+      </c>
+      <c r="T73" t="s">
+        <v>371</v>
+      </c>
+      <c r="U73" t="s">
+        <v>372</v>
+      </c>
+      <c r="V73" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22">
+      <c r="A74" t="s">
+        <v>373</v>
+      </c>
+      <c r="B74">
+        <v>919633838429</v>
+      </c>
+      <c r="D74" t="s">
+        <v>25</v>
+      </c>
+      <c r="E74" s="1">
+        <v>45346</v>
+      </c>
+      <c r="F74">
+        <v>457782</v>
+      </c>
+      <c r="G74" t="s">
+        <v>26</v>
+      </c>
+      <c r="H74" t="s">
+        <v>374</v>
+      </c>
+      <c r="I74" t="s">
+        <v>28</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74" t="s">
+        <v>226</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>600</v>
+      </c>
+      <c r="O74">
+        <v>15.36</v>
+      </c>
+      <c r="P74">
+        <v>600</v>
+      </c>
+      <c r="Q74">
+        <v>28.65</v>
+      </c>
+      <c r="R74">
+        <v>555.99</v>
+      </c>
+      <c r="S74" t="s">
+        <v>375</v>
+      </c>
+      <c r="T74" t="s">
+        <v>376</v>
+      </c>
+      <c r="U74" t="s">
+        <v>377</v>
+      </c>
+      <c r="V74" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22">
+      <c r="A75" t="s">
+        <v>378</v>
+      </c>
+      <c r="B75">
+        <v>919539246616</v>
+      </c>
+      <c r="C75" t="s">
+        <v>379</v>
+      </c>
+      <c r="D75" t="s">
+        <v>25</v>
+      </c>
+      <c r="E75" s="1">
+        <v>45348</v>
+      </c>
+      <c r="F75">
+        <v>457782</v>
+      </c>
+      <c r="G75" t="s">
+        <v>26</v>
+      </c>
+      <c r="H75" t="s">
+        <v>380</v>
+      </c>
+      <c r="I75" t="s">
+        <v>28</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75" t="s">
+        <v>226</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>600</v>
+      </c>
+      <c r="O75">
+        <v>15.36</v>
+      </c>
+      <c r="P75">
+        <v>600</v>
+      </c>
+      <c r="Q75">
+        <v>28.65</v>
+      </c>
+      <c r="R75">
+        <v>555.99</v>
+      </c>
+      <c r="S75" t="s">
+        <v>381</v>
+      </c>
+      <c r="T75" t="s">
+        <v>382</v>
+      </c>
+      <c r="U75" t="s">
+        <v>383</v>
+      </c>
+      <c r="V75" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22">
+      <c r="A76" t="s">
+        <v>384</v>
+      </c>
+      <c r="B76">
+        <v>918921892957</v>
+      </c>
+      <c r="C76" t="s">
+        <v>385</v>
+      </c>
+      <c r="D76" t="s">
+        <v>25</v>
+      </c>
+      <c r="E76" s="1">
+        <v>45349</v>
+      </c>
+      <c r="F76">
+        <v>457782</v>
+      </c>
+      <c r="G76" t="s">
+        <v>26</v>
+      </c>
+      <c r="H76" t="s">
+        <v>386</v>
+      </c>
+      <c r="I76" t="s">
+        <v>28</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76" t="s">
+        <v>226</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>600</v>
+      </c>
+      <c r="O76">
+        <v>15.36</v>
+      </c>
+      <c r="P76">
+        <v>600</v>
+      </c>
+      <c r="Q76">
+        <v>28.65</v>
+      </c>
+      <c r="R76">
+        <v>555.99</v>
+      </c>
+      <c r="S76" t="s">
+        <v>387</v>
+      </c>
+      <c r="T76" t="s">
+        <v>388</v>
+      </c>
+      <c r="U76" t="s">
+        <v>389</v>
+      </c>
+      <c r="V76" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22">
+      <c r="A77" t="s">
+        <v>390</v>
+      </c>
+      <c r="B77">
+        <v>919496569742</v>
+      </c>
+      <c r="D77" t="s">
+        <v>25</v>
+      </c>
+      <c r="E77" s="1">
+        <v>45349</v>
+      </c>
+      <c r="F77">
+        <v>457782</v>
+      </c>
+      <c r="G77" t="s">
+        <v>26</v>
+      </c>
+      <c r="H77" t="s">
+        <v>386</v>
+      </c>
+      <c r="I77" t="s">
+        <v>28</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77" t="s">
+        <v>226</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>600</v>
+      </c>
+      <c r="O77">
+        <v>15.36</v>
+      </c>
+      <c r="P77">
+        <v>600</v>
+      </c>
+      <c r="Q77">
+        <v>28.65</v>
+      </c>
+      <c r="R77">
+        <v>555.99</v>
+      </c>
+      <c r="S77" t="s">
+        <v>391</v>
+      </c>
+      <c r="T77" t="s">
+        <v>392</v>
+      </c>
+      <c r="U77" t="s">
+        <v>393</v>
+      </c>
+      <c r="V77" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22">
+      <c r="A78" t="s">
+        <v>394</v>
+      </c>
+      <c r="B78">
+        <v>919497247487</v>
+      </c>
+      <c r="D78" t="s">
+        <v>25</v>
+      </c>
+      <c r="E78" s="1">
+        <v>45350</v>
+      </c>
+      <c r="F78">
+        <v>457782</v>
+      </c>
+      <c r="G78" t="s">
+        <v>26</v>
+      </c>
+      <c r="H78" t="s">
+        <v>395</v>
+      </c>
+      <c r="I78" t="s">
+        <v>28</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78" t="s">
+        <v>226</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>600</v>
+      </c>
+      <c r="O78">
+        <v>15.36</v>
+      </c>
+      <c r="P78">
+        <v>600</v>
+      </c>
+      <c r="Q78">
+        <v>28.65</v>
+      </c>
+      <c r="R78">
+        <v>555.99</v>
+      </c>
+      <c r="S78" t="s">
+        <v>396</v>
+      </c>
+      <c r="T78" t="s">
+        <v>397</v>
+      </c>
+      <c r="U78" t="s">
+        <v>398</v>
+      </c>
+      <c r="V78" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22">
+      <c r="A79" t="s">
+        <v>399</v>
+      </c>
+      <c r="B79">
+        <v>919942260114</v>
+      </c>
+      <c r="D79" t="s">
+        <v>25</v>
+      </c>
+      <c r="E79" s="1">
+        <v>45352</v>
+      </c>
+      <c r="F79">
+        <v>457782</v>
+      </c>
+      <c r="G79" t="s">
+        <v>26</v>
+      </c>
+      <c r="H79" t="s">
+        <v>400</v>
+      </c>
+      <c r="I79" t="s">
+        <v>28</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79" t="s">
+        <v>226</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>600</v>
+      </c>
+      <c r="O79">
+        <v>15.36</v>
+      </c>
+      <c r="P79">
+        <v>600</v>
+      </c>
+      <c r="Q79">
+        <v>28.65</v>
+      </c>
+      <c r="R79">
+        <v>555.99</v>
+      </c>
+      <c r="S79" t="s">
+        <v>401</v>
+      </c>
+      <c r="T79" t="s">
+        <v>402</v>
+      </c>
+      <c r="U79" t="s">
+        <v>403</v>
+      </c>
+      <c r="V79" t="s">
         <v>33</v>
       </c>
     </row>
